--- a/data/coded_segments/md_4_1.xlsx
+++ b/data/coded_segments/md_4_1.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A52BC68E-17C3-0641-91F6-316A54E5A9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="587">
   <si>
     <t>Color</t>
   </si>
@@ -89,7 +85,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>8/3/18 19:28:18</t>
+    <t>8/3/18 19:28:00</t>
   </si>
   <si>
     <t>345</t>
@@ -107,9 +103,6 @@
     <t>63</t>
   </si>
   <si>
-    <t>8/3/18 19:28:38</t>
-  </si>
-  <si>
     <t>Patient:Sex</t>
   </si>
   <si>
@@ -122,9 +115,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>8/3/18 19:28:41</t>
-  </si>
-  <si>
     <t>Location:City</t>
   </si>
   <si>
@@ -137,9 +127,6 @@
     <t>Mount Hope</t>
   </si>
   <si>
-    <t>8/3/18 19:28:51</t>
-  </si>
-  <si>
     <t>Location:Country</t>
   </si>
   <si>
@@ -152,9 +139,6 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>8/3/18 19:28:55</t>
-  </si>
-  <si>
     <t>Patient:Symptoms/Disease</t>
   </si>
   <si>
@@ -167,9 +151,6 @@
     <t>hematuria</t>
   </si>
   <si>
-    <t>8/3/18 19:28:58</t>
-  </si>
-  <si>
     <t>1: 1361</t>
   </si>
   <si>
@@ -179,7 +160,7 @@
     <t>dysuria</t>
   </si>
   <si>
-    <t>8/3/18 19:29:02</t>
+    <t>8/3/18 19:29:00</t>
   </si>
   <si>
     <t>1: 1371</t>
@@ -191,9 +172,6 @@
     <t>fever</t>
   </si>
   <si>
-    <t>8/3/18 19:29:05</t>
-  </si>
-  <si>
     <t>1: 1382</t>
   </si>
   <si>
@@ -203,9 +181,6 @@
     <t>chills</t>
   </si>
   <si>
-    <t>8/3/18 19:29:08</t>
-  </si>
-  <si>
     <t>Drug Resisted</t>
   </si>
   <si>
@@ -218,9 +193,6 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>8/3/18 19:29:47</t>
-  </si>
-  <si>
     <t>1: 2905</t>
   </si>
   <si>
@@ -230,9 +202,6 @@
     <t>ceftazidime</t>
   </si>
   <si>
-    <t>8/3/18 19:29:50</t>
-  </si>
-  <si>
     <t>1: 2918</t>
   </si>
   <si>
@@ -242,9 +211,6 @@
     <t>ciprofloxacin</t>
   </si>
   <si>
-    <t>8/3/18 19:29:53</t>
-  </si>
-  <si>
     <t>1: 2937</t>
   </si>
   <si>
@@ -254,9 +220,6 @@
     <t>carbapenems</t>
   </si>
   <si>
-    <t>8/3/18 19:29:56</t>
-  </si>
-  <si>
     <t>MIC</t>
   </si>
   <si>
@@ -269,7 +232,7 @@
     <t>128 _x0003_g/ml</t>
   </si>
   <si>
-    <t>8/3/18 19:30:57</t>
+    <t>8/3/18 19:30:00</t>
   </si>
   <si>
     <t>A</t>
@@ -284,9 +247,6 @@
     <t>1: 3522</t>
   </si>
   <si>
-    <t>8/3/18 19:31:03</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -299,12 +259,6 @@
     <t>_x0002_128 _x0003_g/ml</t>
   </si>
   <si>
-    <t>8/3/18 19:31:08</t>
-  </si>
-  <si>
-    <t>8/3/18 19:31:16</t>
-  </si>
-  <si>
     <t>1: 3543</t>
   </si>
   <si>
@@ -314,12 +268,6 @@
     <t>cefepime</t>
   </si>
   <si>
-    <t>8/3/18 19:31:20</t>
-  </si>
-  <si>
-    <t>8/3/18 19:31:23</t>
-  </si>
-  <si>
     <t>1: 3571</t>
   </si>
   <si>
@@ -329,27 +277,15 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>8/3/18 19:31:27</t>
-  </si>
-  <si>
     <t>1: 3588</t>
   </si>
   <si>
     <t>1: 3597</t>
   </si>
   <si>
-    <t>8/3/18 19:31:33</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>8/3/18 19:31:35</t>
-  </si>
-  <si>
-    <t>8/3/18 19:31:39</t>
-  </si>
-  <si>
     <t>1: 3601</t>
   </si>
   <si>
@@ -359,13 +295,7 @@
     <t>piperacillin-tazobactam</t>
   </si>
   <si>
-    <t>8/3/18 19:31:44</t>
-  </si>
-  <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>8/3/18 19:31:48</t>
   </si>
   <si>
     <t>1: 3632</t>
@@ -378,12 +308,6 @@
 4 _x0003_g/ml</t>
   </si>
   <si>
-    <t>8/3/18 19:31:55</t>
-  </si>
-  <si>
-    <t>8/3/18 19:31:57</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -393,7 +317,7 @@
     <t>1: 3668</t>
   </si>
   <si>
-    <t>8/3/18 19:32:06</t>
+    <t>8/3/18 19:32:00</t>
   </si>
   <si>
     <t>1: 3676</t>
@@ -405,12 +329,6 @@
     <t>_x0002_8 _x0003_g/ml</t>
   </si>
   <si>
-    <t>8/3/18 19:32:11</t>
-  </si>
-  <si>
-    <t>8/3/18 19:32:14</t>
-  </si>
-  <si>
     <t>Bacteria:Binomial (genus species)</t>
   </si>
   <si>
@@ -423,9 +341,6 @@
     <t>Pseudomonas aeruginosa</t>
   </si>
   <si>
-    <t>8/3/18 19:32:56</t>
-  </si>
-  <si>
     <t>371</t>
   </si>
   <si>
@@ -438,7 +353,7 @@
     <t>Emergence of multidrug-resistant G</t>
   </si>
   <si>
-    <t>8/3/18 19:35:02</t>
+    <t>8/3/18 19:35:00</t>
   </si>
   <si>
     <t>1359</t>
@@ -456,9 +371,6 @@
     <t>Characterization of</t>
   </si>
   <si>
-    <t>8/3/18 19:35:19</t>
-  </si>
-  <si>
     <t>1806</t>
   </si>
   <si>
@@ -471,18 +383,12 @@
     <t>Burkholderia pseudomallei</t>
   </si>
   <si>
-    <t>8/3/18 19:35:33</t>
-  </si>
-  <si>
     <t>1: 1542</t>
   </si>
   <si>
     <t>1: 1552</t>
   </si>
   <si>
-    <t>8/3/18 19:35:39</t>
-  </si>
-  <si>
     <t>1: 1901</t>
   </si>
   <si>
@@ -492,9 +398,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>8/3/18 19:35:58</t>
-  </si>
-  <si>
     <t>1: 1913</t>
   </si>
   <si>
@@ -513,9 +416,6 @@
     <t>Rajamundry</t>
   </si>
   <si>
-    <t>8/3/18 19:36:03</t>
-  </si>
-  <si>
     <t>Location:State/Province/District</t>
   </si>
   <si>
@@ -528,9 +428,6 @@
     <t>Andhra Pradesh</t>
   </si>
   <si>
-    <t>8/3/18 19:36:10</t>
-  </si>
-  <si>
     <t>1: 1974</t>
   </si>
   <si>
@@ -540,9 +437,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>8/3/18 19:36:16</t>
-  </si>
-  <si>
     <t>1: 2029</t>
   </si>
   <si>
@@ -552,9 +446,6 @@
     <t>jaundice</t>
   </si>
   <si>
-    <t>8/3/18 19:36:22</t>
-  </si>
-  <si>
     <t>1: 2049</t>
   </si>
   <si>
@@ -564,9 +455,6 @@
     <t>abdominal pain</t>
   </si>
   <si>
-    <t>8/3/18 19:36:28</t>
-  </si>
-  <si>
     <t>1: 2068</t>
   </si>
   <si>
@@ -576,16 +464,13 @@
     <t>vomiting</t>
   </si>
   <si>
-    <t>8/3/18 19:36:33</t>
-  </si>
-  <si>
     <t>2: 1009</t>
   </si>
   <si>
     <t>2: 1019</t>
   </si>
   <si>
-    <t>8/3/18 19:37:38</t>
+    <t>8/3/18 19:37:00</t>
   </si>
   <si>
     <t>2: 1025</t>
@@ -598,12 +483,6 @@
 g/mL</t>
   </si>
   <si>
-    <t>8/3/18 19:37:49</t>
-  </si>
-  <si>
-    <t>8/3/18 19:37:51</t>
-  </si>
-  <si>
     <t>Patient:Outcome</t>
   </si>
   <si>
@@ -616,7 +495,7 @@
     <t>discharged</t>
   </si>
   <si>
-    <t>8/3/18 19:38:01</t>
+    <t>8/3/18 19:38:00</t>
   </si>
   <si>
     <t>1910</t>
@@ -634,7 +513,7 @@
     <t>Neisseria gonorrhoeae</t>
   </si>
   <si>
-    <t>8/3/18 19:39:01</t>
+    <t>8/3/18 19:39:00</t>
   </si>
   <si>
     <t>2582</t>
@@ -650,9 +529,6 @@
 de pacientes con enfermedad diarreica aguda</t>
   </si>
   <si>
-    <t>8/3/18 19:39:39</t>
-  </si>
-  <si>
     <t>3039</t>
   </si>
   <si>
@@ -665,9 +541,6 @@
     <t>The Pediat</t>
   </si>
   <si>
-    <t>8/3/18 19:39:53</t>
-  </si>
-  <si>
     <t>3374</t>
   </si>
   <si>
@@ -680,7 +553,7 @@
     <t>vancomycin</t>
   </si>
   <si>
-    <t>8/3/18 19:40:17</t>
+    <t>8/3/18 19:40:00</t>
   </si>
   <si>
     <t>1: 437</t>
@@ -692,9 +565,6 @@
     <t>Staphylococcus aureus</t>
   </si>
   <si>
-    <t>8/3/18 19:40:26</t>
-  </si>
-  <si>
     <t>1: 2970</t>
   </si>
   <si>
@@ -704,9 +574,6 @@
     <t>61</t>
   </si>
   <si>
-    <t>8/3/18 19:40:35</t>
-  </si>
-  <si>
     <t>1: 2991</t>
   </si>
   <si>
@@ -716,9 +583,6 @@
     <t>woman</t>
   </si>
   <si>
-    <t>8/3/18 19:40:38</t>
-  </si>
-  <si>
     <t>Patient:Comorbidities</t>
   </si>
   <si>
@@ -731,9 +595,6 @@
     <t>type 2 diabetes</t>
   </si>
   <si>
-    <t>8/3/18 19:40:45</t>
-  </si>
-  <si>
     <t>1: 3041</t>
   </si>
   <si>
@@ -743,9 +604,6 @@
     <t>hypertension</t>
   </si>
   <si>
-    <t>8/3/18 19:40:51</t>
-  </si>
-  <si>
     <t>1: 3055</t>
   </si>
   <si>
@@ -755,9 +613,6 @@
     <t>hyperlipidemia</t>
   </si>
   <si>
-    <t>8/3/18 19:40:55</t>
-  </si>
-  <si>
     <t>1: 3075</t>
   </si>
   <si>
@@ -767,7 +622,7 @@
     <t>end-stage renal disease</t>
   </si>
   <si>
-    <t>8/3/18 19:41:05</t>
+    <t>8/3/18 19:41:00</t>
   </si>
   <si>
     <t>Event month</t>
@@ -782,9 +637,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>8/3/18 19:41:18</t>
-  </si>
-  <si>
     <t>Event year</t>
   </si>
   <si>
@@ -797,9 +649,6 @@
     <t>2008</t>
   </si>
   <si>
-    <t>8/3/18 19:41:22</t>
-  </si>
-  <si>
     <t>2: 1162</t>
   </si>
   <si>
@@ -809,7 +658,7 @@
     <t>did not survive</t>
   </si>
   <si>
-    <t>8/3/18 19:43:09</t>
+    <t>8/3/18 19:43:00</t>
   </si>
   <si>
     <t>3471</t>
@@ -824,7 +673,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>8/3/18 19:44:07</t>
+    <t>8/3/18 19:44:00</t>
   </si>
   <si>
     <t>1: 1521</t>
@@ -833,9 +682,6 @@
     <t>1: 1525</t>
   </si>
   <si>
-    <t>8/3/18 19:44:12</t>
-  </si>
-  <si>
     <t>1: 1571</t>
   </si>
   <si>
@@ -845,7 +691,7 @@
     <t>neck pain</t>
   </si>
   <si>
-    <t>8/3/18 19:45:39</t>
+    <t>8/3/18 19:45:00</t>
   </si>
   <si>
     <t>1: 1626</t>
@@ -857,9 +703,6 @@
     <t>sore throat</t>
   </si>
   <si>
-    <t>8/3/18 19:45:46</t>
-  </si>
-  <si>
     <t>1: 1657</t>
   </si>
   <si>
@@ -869,9 +712,6 @@
     <t>cough</t>
   </si>
   <si>
-    <t>8/3/18 19:45:50</t>
-  </si>
-  <si>
     <t>1: 2178</t>
   </si>
   <si>
@@ -881,7 +721,7 @@
     <t>confusion</t>
   </si>
   <si>
-    <t>8/3/18 19:46:03</t>
+    <t>8/3/18 19:46:00</t>
   </si>
   <si>
     <t>1: 4074</t>
@@ -890,9 +730,6 @@
     <t>1: 4094</t>
   </si>
   <si>
-    <t>8/3/18 19:46:35</t>
-  </si>
-  <si>
     <t>1: 4109</t>
   </si>
   <si>
@@ -900,9 +737,6 @@
   </si>
   <si>
     <t>erythromycin</t>
-  </si>
-  <si>
-    <t>8/3/18 19:46:39</t>
   </si>
   <si>
     <t>1: 4126</t>
@@ -915,9 +749,6 @@
 acillin</t>
   </si>
   <si>
-    <t>8/3/18 19:46:44</t>
-  </si>
-  <si>
     <t>3633</t>
   </si>
   <si>
@@ -930,7 +761,7 @@
     <t>esearch letter</t>
   </si>
   <si>
-    <t>8/3/18 19:49:03</t>
+    <t>8/3/18 19:49:00</t>
   </si>
   <si>
     <t>4234</t>
@@ -948,9 +779,6 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>8/3/18 19:49:13</t>
-  </si>
-  <si>
     <t>6306</t>
   </si>
   <si>
@@ -960,9 +788,6 @@
     <t>Characterization</t>
   </si>
   <si>
-    <t>8/3/18 19:49:50</t>
-  </si>
-  <si>
     <t>6414</t>
   </si>
   <si>
@@ -975,7 +800,7 @@
     <t>USA, 2007</t>
   </si>
   <si>
-    <t>8/3/18 19:50:01</t>
+    <t>8/3/18 19:50:00</t>
   </si>
   <si>
     <t>6992</t>
@@ -991,9 +816,6 @@
 à la vancomycine en Nouvelle Calédonie</t>
   </si>
   <si>
-    <t>8/3/18 19:50:21</t>
-  </si>
-  <si>
     <t>8057</t>
   </si>
   <si>
@@ -1006,9 +828,6 @@
     <t>Detection</t>
   </si>
   <si>
-    <t>8/3/18 19:50:51</t>
-  </si>
-  <si>
     <t>8611</t>
   </si>
   <si>
@@ -1036,9 +855,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>8/3/18 19:51:55</t>
-  </si>
-  <si>
     <t>1: 1171</t>
   </si>
   <si>
@@ -1048,7 +864,7 @@
     <t>Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>8/3/18 19:52:09</t>
+    <t>8/3/18 19:52:00</t>
   </si>
   <si>
     <t>1: 1147</t>
@@ -1061,9 +877,6 @@
 erichia coli</t>
   </si>
   <si>
-    <t>8/3/18 19:52:13</t>
-  </si>
-  <si>
     <t>Bacteria:Strain</t>
   </si>
   <si>
@@ -1073,9 +886,6 @@
     <t>NDM-1</t>
   </si>
   <si>
-    <t>8/3/18 19:52:23</t>
-  </si>
-  <si>
     <t>1: 1388</t>
   </si>
   <si>
@@ -1085,27 +895,18 @@
     <t>man</t>
   </si>
   <si>
-    <t>8/3/18 19:52:31</t>
-  </si>
-  <si>
     <t>1: 1407</t>
   </si>
   <si>
     <t>1: 1411</t>
   </si>
   <si>
-    <t>8/3/18 19:52:38</t>
-  </si>
-  <si>
     <t>1: 1417</t>
   </si>
   <si>
     <t>1: 1430</t>
   </si>
   <si>
-    <t>8/3/18 19:52:45</t>
-  </si>
-  <si>
     <t>1: 2009</t>
   </si>
   <si>
@@ -1115,7 +916,7 @@
     <t>62</t>
   </si>
   <si>
-    <t>8/3/18 19:53:06</t>
+    <t>8/3/18 19:53:00</t>
   </si>
   <si>
     <t>1: 2021</t>
@@ -1124,9 +925,6 @@
     <t>1: 2023</t>
   </si>
   <si>
-    <t>8/3/18 19:53:13</t>
-  </si>
-  <si>
     <t>1: 2051</t>
   </si>
   <si>
@@ -1136,9 +934,6 @@
     <t>prostatic hyperplasi</t>
   </si>
   <si>
-    <t>8/3/18 19:53:21</t>
-  </si>
-  <si>
     <t>Event day</t>
   </si>
   <si>
@@ -1151,9 +946,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>8/3/18 19:53:32</t>
-  </si>
-  <si>
     <t>1: 2312</t>
   </si>
   <si>
@@ -1163,9 +955,6 @@
     <t>October</t>
   </si>
   <si>
-    <t>8/3/18 19:53:34</t>
-  </si>
-  <si>
     <t>1: 2321</t>
   </si>
   <si>
@@ -1175,9 +964,6 @@
     <t>2010</t>
   </si>
   <si>
-    <t>8/3/18 19:53:37</t>
-  </si>
-  <si>
     <t>1: 2420</t>
   </si>
   <si>
@@ -1187,9 +973,6 @@
     <t>meropenem</t>
   </si>
   <si>
-    <t>8/3/18 19:53:43</t>
-  </si>
-  <si>
     <t>8833</t>
   </si>
   <si>
@@ -1202,7 +985,7 @@
     <t>Two Cases of V</t>
   </si>
   <si>
-    <t>8/3/18 19:54:52</t>
+    <t>8/3/18 19:54:00</t>
   </si>
   <si>
     <t>9365</t>
@@ -1214,7 +997,7 @@
     <t>The</t>
   </si>
   <si>
-    <t>8/3/18 19:55:01</t>
+    <t>8/3/18 19:55:00</t>
   </si>
   <si>
     <t>10246</t>
@@ -1229,7 +1012,7 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>8/3/18 19:56:06</t>
+    <t>8/3/18 19:56:00</t>
   </si>
   <si>
     <t>1: 3294</t>
@@ -1241,9 +1024,6 @@
     <t>girl</t>
   </si>
   <si>
-    <t>8/3/18 19:56:14</t>
-  </si>
-  <si>
     <t>2: 784</t>
   </si>
   <si>
@@ -1253,9 +1033,6 @@
     <t>rifampicin</t>
   </si>
   <si>
-    <t>8/3/18 19:56:50</t>
-  </si>
-  <si>
     <t>2: 833</t>
   </si>
   <si>
@@ -1265,9 +1042,6 @@
     <t>isoniazid</t>
   </si>
   <si>
-    <t>8/3/18 19:56:53</t>
-  </si>
-  <si>
     <t>3: 147</t>
   </si>
   <si>
@@ -1277,7 +1051,7 @@
     <t>cure</t>
   </si>
   <si>
-    <t>8/3/18 19:58:10</t>
+    <t>8/3/18 19:58:00</t>
   </si>
   <si>
     <t>3: 253</t>
@@ -1289,9 +1063,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>8/3/18 19:58:21</t>
-  </si>
-  <si>
     <t>3: 266</t>
   </si>
   <si>
@@ -1301,27 +1072,18 @@
     <t>boy</t>
   </si>
   <si>
-    <t>8/3/18 19:58:24</t>
-  </si>
-  <si>
     <t>3: 415</t>
   </si>
   <si>
     <t>3: 419</t>
   </si>
   <si>
-    <t>8/3/18 19:58:35</t>
-  </si>
-  <si>
     <t>3: 422</t>
   </si>
   <si>
     <t>3: 426</t>
   </si>
   <si>
-    <t>8/3/18 19:58:38</t>
-  </si>
-  <si>
     <t>3: 429</t>
   </si>
   <si>
@@ -1331,9 +1093,6 @@
     <t>vomit</t>
   </si>
   <si>
-    <t>8/3/18 19:58:41</t>
-  </si>
-  <si>
     <t>3: 439</t>
   </si>
   <si>
@@ -1341,9 +1100,6 @@
   </si>
   <si>
     <t xml:space="preserve"> tonic–clonic seizures</t>
-  </si>
-  <si>
-    <t>8/3/18 19:58:46</t>
   </si>
   <si>
     <t>First Surveillance Study (of a particular resistance) in Countr</t>
@@ -1359,15 +1115,12 @@
 of XDR pediatric TB case in Greece</t>
   </si>
   <si>
-    <t>8/3/18 20:00:21</t>
+    <t>8/3/18 20:00:00</t>
   </si>
   <si>
     <t>11137</t>
   </si>
   <si>
-    <t>8/3/18 20:00:46</t>
-  </si>
-  <si>
     <t>12659</t>
   </si>
   <si>
@@ -1380,9 +1133,6 @@
     <t>Th</t>
   </si>
   <si>
-    <t>8/3/18 20:00:54</t>
-  </si>
-  <si>
     <t>12663</t>
   </si>
   <si>
@@ -1395,7 +1145,7 @@
     <t>Tuberculosis</t>
   </si>
   <si>
-    <t>8/3/18 20:01:01</t>
+    <t>8/3/18 20:01:00</t>
   </si>
   <si>
     <t>13136</t>
@@ -1410,9 +1160,6 @@
     <t>Vancomycinrezisztens</t>
   </si>
   <si>
-    <t>8/3/18 20:01:47</t>
-  </si>
-  <si>
     <t>13453</t>
   </si>
   <si>
@@ -1425,7 +1172,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>8/3/18 20:02:07</t>
+    <t>8/3/18 20:02:00</t>
   </si>
   <si>
     <t>14669</t>
@@ -1443,7 +1190,7 @@
     <t>Highly</t>
   </si>
   <si>
-    <t>8/3/18 20:04:19</t>
+    <t>8/3/18 20:04:00</t>
   </si>
   <si>
     <t>15525</t>
@@ -1458,9 +1205,6 @@
     <t>Community</t>
   </si>
   <si>
-    <t>8/3/18 20:04:26</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
@@ -1470,16 +1214,13 @@
     <t>Twenty-Five-Year</t>
   </si>
   <si>
-    <t>8/3/18 20:04:37</t>
-  </si>
-  <si>
     <t>22698</t>
   </si>
   <si>
     <t>Genetically u</t>
   </si>
   <si>
-    <t>8/3/18 20:05:23</t>
+    <t>8/3/18 20:05:00</t>
   </si>
   <si>
     <t>21173</t>
@@ -1494,7 +1235,7 @@
     <t>review</t>
   </si>
   <si>
-    <t>8/3/18 20:06:13</t>
+    <t>8/3/18 20:06:00</t>
   </si>
   <si>
     <t>21003</t>
@@ -1509,9 +1250,6 @@
     <t>study</t>
   </si>
   <si>
-    <t>8/3/18 20:06:48</t>
-  </si>
-  <si>
     <t>20943</t>
   </si>
   <si>
@@ -1521,9 +1259,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>8/3/18 20:06:57</t>
-  </si>
-  <si>
     <t>18940</t>
   </si>
   <si>
@@ -1536,7 +1271,7 @@
     <t>26</t>
   </si>
   <si>
-    <t>8/3/18 20:07:10</t>
+    <t>8/3/18 20:07:00</t>
   </si>
   <si>
     <t>1: 2315</t>
@@ -1545,9 +1280,6 @@
     <t>1: 2319</t>
   </si>
   <si>
-    <t>8/3/18 20:07:13</t>
-  </si>
-  <si>
     <t>1: 2494</t>
   </si>
   <si>
@@ -1557,9 +1289,6 @@
     <t>hypothyroidism</t>
   </si>
   <si>
-    <t>8/3/18 20:07:23</t>
-  </si>
-  <si>
     <t>1: 2514</t>
   </si>
   <si>
@@ -1569,9 +1298,6 @@
     <t>cystic fibrosis</t>
   </si>
   <si>
-    <t>8/3/18 20:07:28</t>
-  </si>
-  <si>
     <t>1: 13</t>
   </si>
   <si>
@@ -1581,7 +1307,7 @@
     <t>Chryseobacterium indologenes</t>
   </si>
   <si>
-    <t>8/3/18 20:08:32</t>
+    <t>8/3/18 20:08:00</t>
   </si>
   <si>
     <t>18469</t>
@@ -1593,7 +1319,7 @@
     <t>Enterococcus raffinosus</t>
   </si>
   <si>
-    <t>8/3/18 20:11:34</t>
+    <t>8/3/18 20:11:00</t>
   </si>
   <si>
     <t>1: 1362</t>
@@ -1605,9 +1331,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>8/3/18 20:11:41</t>
-  </si>
-  <si>
     <t>1: 1414</t>
   </si>
   <si>
@@ -1617,7 +1340,7 @@
     <t>leukaemia</t>
   </si>
   <si>
-    <t>8/3/18 20:12:12</t>
+    <t>8/3/18 20:12:00</t>
   </si>
   <si>
     <t>1: 3206</t>
@@ -1629,7 +1352,7 @@
     <t>penicillin</t>
   </si>
   <si>
-    <t>8/3/18 20:13:17</t>
+    <t>8/3/18 20:13:00</t>
   </si>
   <si>
     <t>1: 3218</t>
@@ -1641,9 +1364,6 @@
     <t>ampicillin</t>
   </si>
   <si>
-    <t>8/3/18 20:13:23</t>
-  </si>
-  <si>
     <t>1: 3230</t>
   </si>
   <si>
@@ -1653,9 +1373,6 @@
     <t>amoxicillin/clavulanate</t>
   </si>
   <si>
-    <t>8/3/18 20:13:30</t>
-  </si>
-  <si>
     <t>1: 3256</t>
   </si>
   <si>
@@ -1665,9 +1382,6 @@
     <t>ampicillin/sulbactam</t>
   </si>
   <si>
-    <t>8/3/18 20:13:35</t>
-  </si>
-  <si>
     <t>1: 3278</t>
   </si>
   <si>
@@ -1677,9 +1391,6 @@
     <t>piperacillin/tazobactam</t>
   </si>
   <si>
-    <t>8/3/18 20:13:40</t>
-  </si>
-  <si>
     <t>1: 3303</t>
   </si>
   <si>
@@ -1689,27 +1400,18 @@
     <t>imipenem</t>
   </si>
   <si>
-    <t>8/3/18 20:13:42</t>
-  </si>
-  <si>
     <t>1: 3314</t>
   </si>
   <si>
     <t>1: 3322</t>
   </si>
   <si>
-    <t>8/3/18 20:13:47</t>
-  </si>
-  <si>
     <t>1: 3325</t>
   </si>
   <si>
     <t>1: 3337</t>
   </si>
   <si>
-    <t>8/3/18 20:13:50</t>
-  </si>
-  <si>
     <t>1: 3340</t>
   </si>
   <si>
@@ -1719,18 +1421,12 @@
     <t>clindamycin</t>
   </si>
   <si>
-    <t>8/3/18 20:13:54</t>
-  </si>
-  <si>
     <t>1: 3353</t>
   </si>
   <si>
     <t>1: 3364</t>
   </si>
   <si>
-    <t>8/3/18 20:13:56</t>
-  </si>
-  <si>
     <t>1: 3368</t>
   </si>
   <si>
@@ -1752,9 +1448,6 @@
     <t>tetracycline</t>
   </si>
   <si>
-    <t>8/3/18 20:14:02</t>
-  </si>
-  <si>
     <t>1: 3397</t>
   </si>
   <si>
@@ -1764,16 +1457,10 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>8/3/18 20:14:05</t>
-  </si>
-  <si>
     <t>1: 3407</t>
   </si>
   <si>
     <t>1: 3416</t>
-  </si>
-  <si>
-    <t>8/3/18 20:14:08</t>
   </si>
   <si>
     <t>1: 3419</t>
@@ -1786,9 +1473,6 @@
 cin</t>
   </si>
   <si>
-    <t>8/3/18 20:14:13</t>
-  </si>
-  <si>
     <t>1: 3437</t>
   </si>
   <si>
@@ -1796,9 +1480,6 @@
   </si>
   <si>
     <t>tobramicin</t>
-  </si>
-  <si>
-    <t>8/3/18 20:14:17</t>
   </si>
   <si>
     <t>17998</t>
@@ -1814,7 +1495,7 @@
 macginleyi</t>
   </si>
   <si>
-    <t>8/3/18 20:16:36</t>
+    <t>8/3/18 20:16:00</t>
   </si>
   <si>
     <t>1: 1052</t>
@@ -1826,18 +1507,12 @@
     <t>84</t>
   </si>
   <si>
-    <t>8/3/18 20:16:40</t>
-  </si>
-  <si>
     <t>1: 1064</t>
   </si>
   <si>
     <t>1: 1066</t>
   </si>
   <si>
-    <t>8/3/18 20:16:42</t>
-  </si>
-  <si>
     <t>1: 1096</t>
   </si>
   <si>
@@ -1845,9 +1520,6 @@
   </si>
   <si>
     <t>Fuchs’ endothelial dystrophy</t>
-  </si>
-  <si>
-    <t>8/3/18 20:16:47</t>
   </si>
   <si>
     <t>1: 1126</t>
@@ -1858,9 +1530,6 @@
   <si>
     <t>Parkinson’s 
 syndrome</t>
-  </si>
-  <si>
-    <t>8/3/18 20:16:52</t>
   </si>
   <si>
     <t>2: 3646</t>
@@ -1874,7 +1543,7 @@
 America.</t>
   </si>
   <si>
-    <t>8/3/18 20:18:10</t>
+    <t>8/3/18 20:18:00</t>
   </si>
   <si>
     <t>1: 5724</t>
@@ -1884,9 +1553,6 @@
   </si>
   <si>
     <t>sulbenicillin</t>
-  </si>
-  <si>
-    <t>8/3/18 20:18:50</t>
   </si>
   <si>
     <t>1: 5701</t>
@@ -1899,9 +1565,6 @@
 quinolone</t>
   </si>
   <si>
-    <t>8/3/18 20:18:58</t>
-  </si>
-  <si>
     <t>17824</t>
   </si>
   <si>
@@ -1911,7 +1574,7 @@
     <t>European Helicobacter Study Group</t>
   </si>
   <si>
-    <t>8/3/18 20:19:20</t>
+    <t>8/3/18 20:19:00</t>
   </si>
   <si>
     <t>17561</t>
@@ -1926,9 +1589,6 @@
     <t>Letters to the Editor</t>
   </si>
   <si>
-    <t>8/3/18 20:19:34</t>
-  </si>
-  <si>
     <t>16836</t>
   </si>
   <si>
@@ -1941,9 +1601,6 @@
     <t>Acinetobacter</t>
   </si>
   <si>
-    <t>8/3/18 20:19:49</t>
-  </si>
-  <si>
     <t>16358</t>
   </si>
   <si>
@@ -1953,22 +1610,199 @@
     <t>Extensively</t>
   </si>
   <si>
-    <t>8/3/18 20:19:59</t>
-  </si>
-  <si>
     <t>18777</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract (poster session) </t>
   </si>
   <si>
-    <t>9/4/18 11:58:28</t>
+    <t>9/4/18 11:58:00</t>
+  </si>
+  <si>
+    <t>1: 327</t>
+  </si>
+  <si>
+    <t>1: 335</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/29/18 11:20:00</t>
+  </si>
+  <si>
+    <t>1: 375</t>
+  </si>
+  <si>
+    <t>1: 381</t>
+  </si>
+  <si>
+    <t>Hawai‘i</t>
+  </si>
+  <si>
+    <t>10/29/18 11:25:00</t>
+  </si>
+  <si>
+    <t>1: 1736</t>
+  </si>
+  <si>
+    <t>1: 1750</t>
+  </si>
+  <si>
+    <t>United  
+States</t>
+  </si>
+  <si>
+    <t>Location:Hospital name</t>
+  </si>
+  <si>
+    <t>1: 2378</t>
+  </si>
+  <si>
+    <t>1: 2401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barnes-Jewish 
+Hospital</t>
+  </si>
+  <si>
+    <t>10/29/18 11:27:00</t>
+  </si>
+  <si>
+    <t>1: 1259</t>
+  </si>
+  <si>
+    <t>1: 1265</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>10/29/18 11:38:00</t>
+  </si>
+  <si>
+    <t>1: 1310</t>
+  </si>
+  <si>
+    <t>1: 1315</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>10/29/18 11:39:00</t>
+  </si>
+  <si>
+    <t>Location:Place traveled to</t>
+  </si>
+  <si>
+    <t>2: 463</t>
+  </si>
+  <si>
+    <t>2: 470</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>10/29/18 11:40:00</t>
+  </si>
+  <si>
+    <t>10/29/18 11:41:00</t>
+  </si>
+  <si>
+    <t>10/29/18 11:42:00</t>
+  </si>
+  <si>
+    <t>1: 1200</t>
+  </si>
+  <si>
+    <t>1: 1234</t>
+  </si>
+  <si>
+    <t>Dartmouth-Hitchcock Medical 
+Center</t>
+  </si>
+  <si>
+    <t>10/29/18 12:05:00</t>
+  </si>
+  <si>
+    <t>1: 1023</t>
+  </si>
+  <si>
+    <t>1: 1051</t>
+  </si>
+  <si>
+    <t>NewYork-Presbyterian Hospital</t>
+  </si>
+  <si>
+    <t>10/29/18 12:17:00</t>
+  </si>
+  <si>
+    <t>1: 1055</t>
+  </si>
+  <si>
+    <t>1: 1062</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>1: 1065</t>
+  </si>
+  <si>
+    <t>1: 1072</t>
+  </si>
+  <si>
+    <t>1: 1075</t>
+  </si>
+  <si>
+    <t>1: 1077</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>10/29/18 12:18:00</t>
+  </si>
+  <si>
+    <t>2: 888</t>
+  </si>
+  <si>
+    <t>2: 910</t>
+  </si>
+  <si>
+    <t>10/30/18 15:10:00</t>
+  </si>
+  <si>
+    <t>2: 962</t>
+  </si>
+  <si>
+    <t>2: 976</t>
+  </si>
+  <si>
+    <t>aminoglycosides</t>
+  </si>
+  <si>
+    <t>10/30/18 15:11:00</t>
+  </si>
+  <si>
+    <t>2: 933</t>
+  </si>
+  <si>
+    <t>2: 956</t>
+  </si>
+  <si>
+    <t>broad-spectrum b-lactams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2118,10 +1952,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2144,7 +1981,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2156,7 +1993,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2173,9 +2010,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2203,14 +2040,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2238,6 +2092,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2389,8 +2260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2478,7 +2349,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="4">
-        <v>9.4453791434221793E-2</v>
+        <v>9.4453999999999996E-2</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -2519,13 +2390,13 @@
         <v>2</v>
       </c>
       <c r="K3" s="4">
-        <v>1.5104599350502228E-2</v>
+        <v>1.5105E-2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2542,31 +2413,31 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J4" s="3">
         <v>4</v>
       </c>
       <c r="K4" s="4">
-        <v>3.0209198701004455E-2</v>
+        <v>3.0209E-2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2583,31 +2454,31 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="3">
         <v>10</v>
       </c>
       <c r="K5" s="4">
-        <v>7.5522996752511146E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2624,31 +2495,31 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="3">
         <v>19</v>
       </c>
       <c r="K6" s="4">
-        <v>0.14349369382977117</v>
+        <v>0.14349400000000001</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2665,31 +2536,31 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3">
         <v>9</v>
       </c>
       <c r="K7" s="4">
-        <v>6.7970697077260028E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2706,31 +2577,31 @@
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3">
         <v>7</v>
       </c>
       <c r="K8" s="4">
-        <v>5.2866097726757801E-2</v>
+        <v>5.2866000000000003E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2747,31 +2618,31 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3">
         <v>5</v>
       </c>
       <c r="K9" s="4">
-        <v>3.7761498376255573E-2</v>
+        <v>3.7761000000000003E-2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2788,31 +2659,31 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3">
         <v>6</v>
       </c>
       <c r="K10" s="4">
-        <v>4.5313798051506683E-2</v>
+        <v>4.5314E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2829,31 +2700,31 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3">
         <v>10</v>
       </c>
       <c r="K11" s="4">
-        <v>7.5522996752511146E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2870,31 +2741,31 @@
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3">
         <v>11</v>
       </c>
       <c r="K12" s="4">
-        <v>8.3075296427762249E-2</v>
+        <v>8.3074999999999996E-2</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2911,31 +2782,31 @@
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J13" s="3">
         <v>13</v>
       </c>
       <c r="K13" s="4">
-        <v>9.817989577826447E-2</v>
+        <v>9.8180000000000003E-2</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2952,31 +2823,31 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3">
         <v>11</v>
       </c>
       <c r="K14" s="4">
-        <v>8.3075296427762249E-2</v>
+        <v>8.3074999999999996E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2993,31 +2864,31 @@
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3">
         <v>9</v>
       </c>
       <c r="K15" s="4">
-        <v>6.7970697077260028E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3034,31 +2905,31 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J16" s="3">
         <v>9</v>
       </c>
       <c r="K16" s="4">
-        <v>6.7970697077260028E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3075,31 +2946,31 @@
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J17" s="3">
         <v>11</v>
       </c>
       <c r="K17" s="4">
-        <v>8.3075296427762249E-2</v>
+        <v>8.3074999999999996E-2</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3116,31 +2987,31 @@
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J18" s="3">
         <v>10</v>
       </c>
       <c r="K18" s="4">
-        <v>7.5522996752511146E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3157,31 +3028,31 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J19" s="3">
         <v>10</v>
       </c>
       <c r="K19" s="4">
-        <v>7.5522996752511146E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3198,31 +3069,31 @@
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J20" s="3">
         <v>8</v>
       </c>
       <c r="K20" s="4">
-        <v>6.0418397402008911E-2</v>
+        <v>6.0417999999999999E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3239,31 +3110,31 @@
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J21" s="3">
         <v>8</v>
       </c>
       <c r="K21" s="4">
-        <v>6.0418397402008911E-2</v>
+        <v>6.0417999999999999E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3280,31 +3151,31 @@
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J22" s="3">
         <v>9</v>
       </c>
       <c r="K22" s="4">
-        <v>6.7970697077260028E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3321,31 +3192,31 @@
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J23" s="3">
         <v>10</v>
       </c>
       <c r="K23" s="4">
-        <v>7.5522996752511146E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3362,31 +3233,31 @@
         <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J24" s="3">
         <v>10</v>
       </c>
       <c r="K24" s="4">
-        <v>7.5522996752511146E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3403,31 +3274,31 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J25" s="3">
         <v>9</v>
       </c>
       <c r="K25" s="4">
-        <v>6.7970697077260028E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3444,31 +3315,31 @@
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J26" s="3">
         <v>23</v>
       </c>
       <c r="K26" s="4">
-        <v>0.17370289253077562</v>
+        <v>0.173703</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3485,34 +3356,34 @@
         <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3">
         <v>23</v>
       </c>
       <c r="K27" s="4">
-        <v>0.17370289253077562</v>
+        <v>0.173703</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3526,34 +3397,34 @@
         <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="J28" s="3">
         <v>17</v>
       </c>
       <c r="K28" s="4">
-        <v>0.12838909447926894</v>
+        <v>0.128389</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3567,31 +3438,31 @@
         <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="J29" s="3">
         <v>17</v>
       </c>
       <c r="K29" s="4">
-        <v>0.12838909447926894</v>
+        <v>0.128389</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3608,31 +3479,31 @@
         <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J30" s="3">
         <v>13</v>
       </c>
       <c r="K30" s="4">
-        <v>9.817989577826447E-2</v>
+        <v>9.8180000000000003E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3649,31 +3520,31 @@
         <v>22</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="J31" s="3">
         <v>8</v>
       </c>
       <c r="K31" s="4">
-        <v>6.0418397402008911E-2</v>
+        <v>6.0417999999999999E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3690,31 +3561,31 @@
         <v>22</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="J32" s="3">
         <v>8</v>
       </c>
       <c r="K32" s="4">
-        <v>6.0418397402008911E-2</v>
+        <v>6.0417999999999999E-2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3731,31 +3602,31 @@
         <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="J33" s="3">
         <v>22</v>
       </c>
       <c r="K33" s="4">
-        <v>0.1661505928555245</v>
+        <v>0.16615099999999999</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3769,34 +3640,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="J34" s="3">
         <v>34</v>
       </c>
       <c r="K34" s="4">
-        <v>0.22689356022689358</v>
+        <v>0.22689400000000001</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3810,34 +3681,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="J35" s="3">
         <v>19</v>
       </c>
       <c r="K35" s="4">
-        <v>6.3988145354123865E-2</v>
+        <v>6.3988000000000003E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3851,34 +3722,34 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J36" s="3">
         <v>25</v>
       </c>
       <c r="K36" s="4">
-        <v>0.21549866390828376</v>
+        <v>0.215499</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3892,34 +3763,34 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J37" s="3">
         <v>11</v>
       </c>
       <c r="K37" s="4">
-        <v>9.4819412119644855E-2</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3933,34 +3804,34 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="J38" s="3">
         <v>2</v>
       </c>
       <c r="K38" s="4">
-        <v>1.7239893112662701E-2</v>
+        <v>1.7239999999999998E-2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3974,34 +3845,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
         <v>4</v>
       </c>
       <c r="K39" s="4">
-        <v>3.4479786225325403E-2</v>
+        <v>3.4479999999999997E-2</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4015,34 +3886,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="J40" s="3">
         <v>10</v>
       </c>
       <c r="K40" s="4">
-        <v>8.619946556331351E-2</v>
+        <v>8.6198999999999998E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4056,34 +3927,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="J41" s="3">
         <v>14</v>
       </c>
       <c r="K41" s="4">
-        <v>0.12067925178863891</v>
+        <v>0.12067899999999999</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4097,34 +3968,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="J42" s="3">
         <v>5</v>
       </c>
       <c r="K42" s="4">
-        <v>4.3099732781656755E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4138,34 +4009,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="J43" s="3">
         <v>8</v>
       </c>
       <c r="K43" s="4">
-        <v>6.8959572450650805E-2</v>
+        <v>6.8959999999999994E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4179,34 +4050,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="J44" s="3">
         <v>14</v>
       </c>
       <c r="K44" s="4">
-        <v>0.12067925178863891</v>
+        <v>0.12067899999999999</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4220,34 +4091,34 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="J45" s="3">
         <v>8</v>
       </c>
       <c r="K45" s="4">
-        <v>6.8959572450650805E-2</v>
+        <v>6.8959999999999994E-2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4261,37 +4132,37 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J46" s="3">
         <v>11</v>
       </c>
       <c r="K46" s="4">
-        <v>9.4819412119644855E-2</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -4302,37 +4173,37 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="J47" s="3">
         <v>11</v>
       </c>
       <c r="K47" s="4">
-        <v>9.4819412119644855E-2</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4343,34 +4214,34 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="J48" s="3">
         <v>11</v>
       </c>
       <c r="K48" s="4">
-        <v>9.4819412119644855E-2</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4384,34 +4255,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="J49" s="3">
         <v>10</v>
       </c>
       <c r="K49" s="4">
-        <v>8.619946556331351E-2</v>
+        <v>8.6198999999999998E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4425,37 +4296,37 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J50" s="3">
         <v>21</v>
       </c>
       <c r="K50" s="4">
-        <v>0.1311025096766138</v>
+        <v>0.131103</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -4466,34 +4337,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="J51" s="3">
         <v>102</v>
       </c>
       <c r="K51" s="4">
-        <v>0.46178920680912716</v>
+        <v>0.46178900000000001</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4507,34 +4378,34 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="J52" s="3">
         <v>10</v>
       </c>
       <c r="K52" s="4">
-        <v>4.5091761735130992E-2</v>
+        <v>4.5092E-2</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4548,34 +4419,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="J53" s="3">
         <v>10</v>
       </c>
       <c r="K53" s="4">
-        <v>4.9458430189425792E-2</v>
+        <v>4.9458000000000002E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4589,34 +4460,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="J54" s="3">
         <v>21</v>
       </c>
       <c r="K54" s="4">
-        <v>0.10386270339779416</v>
+        <v>0.103863</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4630,34 +4501,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J55" s="3">
         <v>2</v>
       </c>
       <c r="K55" s="4">
-        <v>9.891686037885157E-3</v>
+        <v>9.8919999999999998E-3</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4671,34 +4542,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="J56" s="3">
         <v>5</v>
       </c>
       <c r="K56" s="4">
-        <v>2.4729215094712896E-2</v>
+        <v>2.4729000000000001E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4712,34 +4583,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="J57" s="3">
         <v>15</v>
       </c>
       <c r="K57" s="4">
-        <v>7.4187645284138681E-2</v>
+        <v>7.4188000000000004E-2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4753,34 +4624,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="J58" s="3">
         <v>12</v>
       </c>
       <c r="K58" s="4">
-        <v>5.9350116227310942E-2</v>
+        <v>5.935E-2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4794,34 +4665,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="J59" s="3">
         <v>14</v>
       </c>
       <c r="K59" s="4">
-        <v>6.9241802265196106E-2</v>
+        <v>6.9241999999999998E-2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4835,34 +4706,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="J60" s="3">
         <v>23</v>
       </c>
       <c r="K60" s="4">
-        <v>0.11375438943567931</v>
+        <v>0.11375399999999999</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4876,34 +4747,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="J61" s="3">
         <v>3</v>
       </c>
       <c r="K61" s="4">
-        <v>1.4837529056827736E-2</v>
+        <v>1.4838E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4917,34 +4788,34 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="J62" s="3">
         <v>4</v>
       </c>
       <c r="K62" s="4">
-        <v>1.9783372075770314E-2</v>
+        <v>1.9782999999999999E-2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4958,34 +4829,34 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="J63" s="3">
         <v>15</v>
       </c>
       <c r="K63" s="4">
-        <v>7.4187645284138681E-2</v>
+        <v>7.4188000000000004E-2</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4999,34 +4870,34 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="J64" s="3">
         <v>2</v>
       </c>
       <c r="K64" s="4">
-        <v>9.2004784248780943E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5040,34 +4911,34 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="J65" s="3">
         <v>5</v>
       </c>
       <c r="K65" s="4">
-        <v>2.3001196062195233E-2</v>
+        <v>2.3001000000000001E-2</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5081,34 +4952,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="J66" s="3">
         <v>9</v>
       </c>
       <c r="K66" s="4">
-        <v>4.1402152911951422E-2</v>
+        <v>4.1402000000000001E-2</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5122,34 +4993,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="J67" s="3">
         <v>11</v>
       </c>
       <c r="K67" s="4">
-        <v>5.0602631336829518E-2</v>
+        <v>5.0603000000000002E-2</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5163,34 +5034,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="J68" s="3">
         <v>5</v>
       </c>
       <c r="K68" s="4">
-        <v>2.3001196062195233E-2</v>
+        <v>2.3001000000000001E-2</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5204,34 +5075,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="J69" s="3">
         <v>9</v>
       </c>
       <c r="K69" s="4">
-        <v>4.1402152911951422E-2</v>
+        <v>4.1402000000000001E-2</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5245,34 +5116,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="J70" s="3">
         <v>21</v>
       </c>
       <c r="K70" s="4">
-        <v>9.6605023461219991E-2</v>
+        <v>9.6604999999999996E-2</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5286,37 +5157,37 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="J71" s="3">
         <v>12</v>
       </c>
       <c r="K71" s="4">
-        <v>5.5202870549268562E-2</v>
+        <v>5.5203000000000002E-2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5327,34 +5198,34 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="J72" s="3">
         <v>12</v>
       </c>
       <c r="K72" s="4">
-        <v>5.5202870549268562E-2</v>
+        <v>5.5203000000000002E-2</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5368,34 +5239,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="J73" s="3">
         <v>14</v>
       </c>
       <c r="K73" s="4">
-        <v>7.4070155018253009E-2</v>
+        <v>7.4069999999999997E-2</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5409,34 +5280,34 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="J74" s="3">
         <v>8</v>
       </c>
       <c r="K74" s="4">
-        <v>0.28060329708874077</v>
+        <v>0.28060299999999999</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5450,34 +5321,34 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="J75" s="3">
         <v>16</v>
       </c>
       <c r="K75" s="4">
-        <v>6.6808635016075826E-2</v>
+        <v>6.6808999999999993E-2</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5491,37 +5362,37 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="J76" s="3">
         <v>9</v>
       </c>
       <c r="K76" s="4">
-        <v>6.0996272450016945E-2</v>
+        <v>6.0996000000000002E-2</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5532,34 +5403,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="J77" s="3">
         <v>97</v>
       </c>
       <c r="K77" s="4">
-        <v>1.1139182361047313</v>
+        <v>1.113918</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5573,34 +5444,34 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="J78" s="3">
         <v>9</v>
       </c>
       <c r="K78" s="4">
-        <v>4.0010669511869837E-2</v>
+        <v>4.0010999999999998E-2</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5614,34 +5485,34 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="J79" s="3">
         <v>8</v>
       </c>
       <c r="K79" s="4">
-        <v>4.7172592723627574E-2</v>
+        <v>4.7173E-2</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5655,34 +5526,34 @@
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="J80" s="3">
         <v>2</v>
       </c>
       <c r="K80" s="4">
-        <v>3.0088761847449977E-2</v>
+        <v>3.0089000000000001E-2</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5696,37 +5567,37 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="J81" s="3">
         <v>21</v>
       </c>
       <c r="K81" s="4">
-        <v>0.31593199939822475</v>
+        <v>0.31593199999999999</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -5737,34 +5608,34 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="J82" s="3">
         <v>19</v>
       </c>
       <c r="K82" s="4">
-        <v>0.28584323755077479</v>
+        <v>0.28584300000000001</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5778,34 +5649,34 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="J83" s="3">
         <v>5</v>
       </c>
       <c r="K83" s="4">
-        <v>7.5221904618624935E-2</v>
+        <v>7.5221999999999997E-2</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5819,34 +5690,34 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="J84" s="3">
         <v>3</v>
       </c>
       <c r="K84" s="4">
-        <v>4.5133142771174965E-2</v>
+        <v>4.5133E-2</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5860,34 +5731,34 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J85" s="3">
         <v>5</v>
       </c>
       <c r="K85" s="4">
-        <v>7.5221904618624935E-2</v>
+        <v>7.5221999999999997E-2</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5901,34 +5772,34 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="J86" s="3">
         <v>14</v>
       </c>
       <c r="K86" s="4">
-        <v>0.21062133293214985</v>
+        <v>0.210621</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5942,34 +5813,34 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="J87" s="3">
         <v>2</v>
       </c>
       <c r="K87" s="4">
-        <v>3.0088761847449977E-2</v>
+        <v>3.0089000000000001E-2</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5983,34 +5854,34 @@
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="J88" s="3">
         <v>3</v>
       </c>
       <c r="K88" s="4">
-        <v>4.5133142771174965E-2</v>
+        <v>4.5133E-2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6024,34 +5895,34 @@
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="J89" s="3">
         <v>20</v>
       </c>
       <c r="K89" s="4">
-        <v>0.30088761847449974</v>
+        <v>0.30088799999999999</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6065,34 +5936,34 @@
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="J90" s="3">
         <v>2</v>
       </c>
       <c r="K90" s="4">
-        <v>3.0088761847449977E-2</v>
+        <v>3.0089000000000001E-2</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6106,34 +5977,34 @@
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="J91" s="3">
         <v>7</v>
       </c>
       <c r="K91" s="4">
-        <v>0.10531066646607493</v>
+        <v>0.105311</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6147,34 +6018,34 @@
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="J92" s="3">
         <v>4</v>
       </c>
       <c r="K92" s="4">
-        <v>6.0177523694899954E-2</v>
+        <v>6.0178000000000002E-2</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6188,34 +6059,34 @@
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="J93" s="3">
         <v>9</v>
       </c>
       <c r="K93" s="4">
-        <v>0.13539942831352492</v>
+        <v>0.13539899999999999</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6229,34 +6100,34 @@
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>389</v>
+        <v>318</v>
       </c>
       <c r="J94" s="3">
         <v>14</v>
       </c>
       <c r="K94" s="4">
-        <v>0.10092999783721432</v>
+        <v>0.10093000000000001</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6270,34 +6141,34 @@
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="J95" s="3">
         <v>3</v>
       </c>
       <c r="K95" s="4">
-        <v>5.2803886366036539E-3</v>
+        <v>5.28E-3</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6311,34 +6182,34 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="J96" s="3">
         <v>3</v>
       </c>
       <c r="K96" s="4">
-        <v>1.0959304449477606E-2</v>
+        <v>1.0959E-2</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6352,34 +6223,34 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="J97" s="3">
         <v>4</v>
       </c>
       <c r="K97" s="4">
-        <v>1.4612405932636808E-2</v>
+        <v>1.4612E-2</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6393,34 +6264,34 @@
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="J98" s="3">
         <v>10</v>
       </c>
       <c r="K98" s="4">
-        <v>3.6531014831592025E-2</v>
+        <v>3.6531000000000001E-2</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>407</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6434,34 +6305,34 @@
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="J99" s="3">
         <v>9</v>
       </c>
       <c r="K99" s="4">
-        <v>3.2877913348432819E-2</v>
+        <v>3.2877999999999998E-2</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6475,34 +6346,34 @@
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="J100" s="3">
         <v>4</v>
       </c>
       <c r="K100" s="4">
-        <v>1.4612405932636808E-2</v>
+        <v>1.4612E-2</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6516,34 +6387,34 @@
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="J101" s="3">
         <v>2</v>
       </c>
       <c r="K101" s="4">
-        <v>7.3062029663184041E-3</v>
+        <v>7.306E-3</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>419</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6557,34 +6428,34 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="J102" s="3">
         <v>3</v>
       </c>
       <c r="K102" s="4">
-        <v>1.0959304449477606E-2</v>
+        <v>1.0959E-2</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6598,34 +6469,34 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J103" s="3">
         <v>5</v>
       </c>
       <c r="K103" s="4">
-        <v>1.8265507415796012E-2</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>426</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6639,34 +6510,34 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="J104" s="3">
         <v>5</v>
       </c>
       <c r="K104" s="4">
-        <v>1.8265507415796012E-2</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6680,34 +6551,34 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="J105" s="3">
         <v>5</v>
       </c>
       <c r="K105" s="4">
-        <v>1.8265507415796012E-2</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6721,37 +6592,37 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>436</v>
+        <v>357</v>
       </c>
       <c r="J106" s="3">
         <v>21</v>
       </c>
       <c r="K106" s="4">
-        <v>7.6715131146343249E-2</v>
+        <v>7.6715000000000005E-2</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -6762,34 +6633,34 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>439</v>
+        <v>359</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="J107" s="3">
         <v>48</v>
       </c>
       <c r="K107" s="4">
-        <v>0.17534887119164169</v>
+        <v>0.175349</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>442</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6803,34 +6674,34 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="J108" s="3">
         <v>8</v>
       </c>
       <c r="K108" s="4">
-        <v>0.38740920096852299</v>
+        <v>0.387409</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6844,34 +6715,34 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>445</v>
+        <v>364</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="J109" s="3">
         <v>2</v>
       </c>
       <c r="K109" s="4">
-        <v>2.3972192256981901E-2</v>
+        <v>2.3972E-2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6885,34 +6756,34 @@
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="J110" s="3">
         <v>12</v>
       </c>
       <c r="K110" s="4">
-        <v>4.0114996322792008E-2</v>
+        <v>4.0114999999999998E-2</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6926,34 +6797,34 @@
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="J111" s="3">
         <v>20</v>
       </c>
       <c r="K111" s="4">
-        <v>7.6675356540407913E-2</v>
+        <v>7.6674999999999993E-2</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6967,34 +6838,34 @@
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="J112" s="3">
         <v>11</v>
       </c>
       <c r="K112" s="4">
-        <v>9.8425196850393692E-2</v>
+        <v>9.8424999999999999E-2</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7008,34 +6879,34 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="J113" s="3">
         <v>6</v>
       </c>
       <c r="K113" s="4">
-        <v>4.1908220996018722E-2</v>
+        <v>4.1908000000000001E-2</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7049,34 +6920,34 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="J114" s="3">
         <v>9</v>
       </c>
       <c r="K114" s="4">
-        <v>5.3257589206461918E-2</v>
+        <v>5.3258E-2</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7090,34 +6961,34 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="J115" s="3">
         <v>16</v>
       </c>
       <c r="K115" s="4">
-        <v>3.2570637570230439E-2</v>
+        <v>3.2571000000000003E-2</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>479</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7131,34 +7002,34 @@
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="J116" s="3">
         <v>13</v>
       </c>
       <c r="K116" s="4">
-        <v>5.270199051364171E-2</v>
+        <v>5.2701999999999999E-2</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7172,34 +7043,34 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>484</v>
+        <v>399</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>486</v>
+        <v>401</v>
       </c>
       <c r="J117" s="3">
         <v>6</v>
       </c>
       <c r="K117" s="4">
-        <v>2.0774903916069388E-2</v>
+        <v>2.0774999999999998E-2</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7213,34 +7084,34 @@
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>489</v>
+        <v>404</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>490</v>
+        <v>405</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="J118" s="3">
         <v>5</v>
       </c>
       <c r="K118" s="4">
-        <v>1.2139458094590657E-2</v>
+        <v>1.2139E-2</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>492</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7254,34 +7125,34 @@
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
       <c r="J119" s="3">
         <v>1</v>
       </c>
       <c r="K119" s="4">
-        <v>2.3440613206441481E-3</v>
+        <v>2.3440000000000002E-3</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7295,34 +7166,34 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="J120" s="3">
         <v>2</v>
       </c>
       <c r="K120" s="4">
-        <v>9.9112939194211797E-3</v>
+        <v>9.9109999999999997E-3</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7336,34 +7207,34 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="J121" s="3">
         <v>5</v>
       </c>
       <c r="K121" s="4">
-        <v>2.4778234798552949E-2</v>
+        <v>2.4778000000000001E-2</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7377,34 +7248,34 @@
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="J122" s="3">
         <v>14</v>
       </c>
       <c r="K122" s="4">
-        <v>6.9379057435948258E-2</v>
+        <v>6.9378999999999996E-2</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>508</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7418,34 +7289,34 @@
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>510</v>
+        <v>421</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="J123" s="3">
         <v>15</v>
       </c>
       <c r="K123" s="4">
-        <v>7.4334704395658854E-2</v>
+        <v>7.4334999999999998E-2</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>512</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7459,34 +7330,34 @@
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="J124" s="3">
         <v>28</v>
       </c>
       <c r="K124" s="4">
-        <v>0.13875811487189652</v>
+        <v>0.13875799999999999</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7500,34 +7371,34 @@
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="J125" s="3">
         <v>23</v>
       </c>
       <c r="K125" s="4">
-        <v>0.19554497534432919</v>
+        <v>0.195545</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7541,34 +7412,34 @@
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="J126" s="3">
         <v>2</v>
       </c>
       <c r="K126" s="4">
-        <v>1.7003910899506886E-2</v>
+        <v>1.7003999999999998E-2</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7582,34 +7453,34 @@
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>525</v>
+        <v>434</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>527</v>
+        <v>436</v>
       </c>
       <c r="J127" s="3">
         <v>9</v>
       </c>
       <c r="K127" s="4">
-        <v>7.6517599047780993E-2</v>
+        <v>7.6518000000000003E-2</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>528</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7623,34 +7494,34 @@
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>530</v>
+        <v>439</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>531</v>
+        <v>440</v>
       </c>
       <c r="J128" s="3">
         <v>10</v>
       </c>
       <c r="K128" s="4">
-        <v>8.5019554497534441E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>532</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7664,34 +7535,34 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>533</v>
+        <v>442</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>535</v>
+        <v>444</v>
       </c>
       <c r="J129" s="3">
         <v>10</v>
       </c>
       <c r="K129" s="4">
-        <v>8.5019554497534441E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7705,34 +7576,34 @@
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>538</v>
+        <v>446</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="J130" s="3">
         <v>23</v>
       </c>
       <c r="K130" s="4">
-        <v>0.19554497534432919</v>
+        <v>0.195545</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>540</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7746,34 +7617,34 @@
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>542</v>
+        <v>449</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>543</v>
+        <v>450</v>
       </c>
       <c r="J131" s="3">
         <v>20</v>
       </c>
       <c r="K131" s="4">
-        <v>0.17003910899506888</v>
+        <v>0.170039</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>544</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7787,34 +7658,34 @@
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>546</v>
+        <v>452</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>547</v>
+        <v>453</v>
       </c>
       <c r="J132" s="3">
         <v>23</v>
       </c>
       <c r="K132" s="4">
-        <v>0.19554497534432919</v>
+        <v>0.195545</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>548</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7828,34 +7699,34 @@
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="J133" s="3">
         <v>8</v>
       </c>
       <c r="K133" s="4">
-        <v>6.8015643598027545E-2</v>
+        <v>6.8015999999999993E-2</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>552</v>
+        <v>441</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7869,34 +7740,34 @@
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="J134" s="3">
         <v>9</v>
       </c>
       <c r="K134" s="4">
-        <v>7.6517599047780993E-2</v>
+        <v>7.6518000000000003E-2</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>555</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7910,34 +7781,34 @@
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>556</v>
+        <v>459</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J135" s="3">
         <v>13</v>
       </c>
       <c r="K135" s="4">
-        <v>0.11052542084679477</v>
+        <v>0.110525</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>558</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7951,34 +7822,34 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>559</v>
+        <v>461</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>561</v>
+        <v>463</v>
       </c>
       <c r="J136" s="3">
         <v>11</v>
       </c>
       <c r="K136" s="4">
-        <v>9.3521509947287876E-2</v>
+        <v>9.3521999999999994E-2</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7992,34 +7863,34 @@
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>564</v>
+        <v>465</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="J137" s="3">
         <v>12</v>
       </c>
       <c r="K137" s="4">
-        <v>0.10202346539704132</v>
+        <v>0.102023</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>565</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8033,34 +7904,34 @@
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="J138" s="3">
         <v>13</v>
       </c>
       <c r="K138" s="4">
-        <v>0.11052542084679477</v>
+        <v>0.110525</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>569</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8074,34 +7945,34 @@
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>571</v>
+        <v>471</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>572</v>
+        <v>472</v>
       </c>
       <c r="J139" s="3">
         <v>12</v>
       </c>
       <c r="K139" s="4">
-        <v>0.10202346539704132</v>
+        <v>0.102023</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>573</v>
+        <v>469</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8115,34 +7986,34 @@
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>574</v>
+        <v>473</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>575</v>
+        <v>474</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>576</v>
+        <v>475</v>
       </c>
       <c r="J140" s="3">
         <v>8</v>
       </c>
       <c r="K140" s="4">
-        <v>6.8015643598027545E-2</v>
+        <v>6.8015999999999993E-2</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>577</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8156,37 +8027,37 @@
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>578</v>
+        <v>476</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>579</v>
+        <v>477</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J141" s="3">
         <v>10</v>
       </c>
       <c r="K141" s="4">
-        <v>8.5019554497534441E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -8197,34 +8068,34 @@
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>581</v>
+        <v>478</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>582</v>
+        <v>479</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>583</v>
+        <v>480</v>
       </c>
       <c r="J142" s="3">
         <v>13</v>
       </c>
       <c r="K142" s="4">
-        <v>0.11052542084679477</v>
+        <v>0.110525</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>584</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8238,37 +8109,37 @@
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>586</v>
+        <v>482</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>587</v>
+        <v>483</v>
       </c>
       <c r="J143" s="3">
         <v>10</v>
       </c>
       <c r="K143" s="4">
-        <v>8.5019554497534441E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
@@ -8279,34 +8150,34 @@
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>591</v>
+        <v>486</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>592</v>
+        <v>487</v>
       </c>
       <c r="J144" s="3">
         <v>27</v>
       </c>
       <c r="K144" s="4">
-        <v>0.18867924528301888</v>
+        <v>0.18867900000000001</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>593</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8320,34 +8191,34 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>595</v>
+        <v>490</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>596</v>
+        <v>491</v>
       </c>
       <c r="J145" s="3">
         <v>2</v>
       </c>
       <c r="K145" s="4">
-        <v>1.3976240391334729E-2</v>
+        <v>1.3976000000000001E-2</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>597</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8361,34 +8232,34 @@
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>598</v>
+        <v>492</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>599</v>
+        <v>493</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="J146" s="3">
         <v>3</v>
       </c>
       <c r="K146" s="4">
-        <v>2.0964360587002094E-2</v>
+        <v>2.0964E-2</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>600</v>
+        <v>488</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8402,37 +8273,37 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>601</v>
+        <v>494</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>602</v>
+        <v>495</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>603</v>
+        <v>496</v>
       </c>
       <c r="J147" s="3">
         <v>28</v>
       </c>
       <c r="K147" s="4">
-        <v>0.19566736547868621</v>
+        <v>0.19566700000000001</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8443,37 +8314,37 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>605</v>
+        <v>497</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>606</v>
+        <v>498</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>607</v>
+        <v>499</v>
       </c>
       <c r="J148" s="3">
         <v>21</v>
       </c>
       <c r="K148" s="4">
-        <v>0.14675052410901468</v>
+        <v>0.14675099999999999</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -8484,34 +8355,34 @@
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>610</v>
+        <v>501</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>611</v>
+        <v>502</v>
       </c>
       <c r="J149" s="3">
         <v>82</v>
       </c>
       <c r="K149" s="4">
-        <v>0.573025856044724</v>
+        <v>0.57302600000000004</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>612</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8525,37 +8396,37 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>613</v>
+        <v>504</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>614</v>
+        <v>505</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>615</v>
+        <v>506</v>
       </c>
       <c r="J150" s="3">
         <v>13</v>
       </c>
       <c r="K150" s="4">
-        <v>9.0845562543675748E-2</v>
+        <v>9.0845999999999996E-2</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8566,34 +8437,34 @@
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>617</v>
+        <v>507</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="J151" s="3">
         <v>18</v>
       </c>
       <c r="K151" s="4">
-        <v>0.12578616352201258</v>
+        <v>0.12578600000000001</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>620</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8607,34 +8478,34 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>621</v>
+        <v>510</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>623</v>
+        <v>512</v>
       </c>
       <c r="J152" s="3">
         <v>33</v>
       </c>
       <c r="K152" s="4">
-        <v>6.5906018018305895E-3</v>
+        <v>6.5909999999999996E-3</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>624</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8648,34 +8519,34 @@
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>626</v>
+        <v>515</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>627</v>
+        <v>516</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>628</v>
+        <v>517</v>
       </c>
       <c r="J153" s="3">
         <v>21</v>
       </c>
       <c r="K153" s="4">
-        <v>0.14036494886705433</v>
+        <v>0.14036499999999999</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>629</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8689,34 +8560,34 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>630</v>
+        <v>518</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>631</v>
+        <v>519</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>632</v>
+        <v>520</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>633</v>
+        <v>521</v>
       </c>
       <c r="J154" s="3">
         <v>13</v>
       </c>
       <c r="K154" s="4">
-        <v>4.3166423163766773E-2</v>
+        <v>4.3166000000000003E-2</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>634</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8730,34 +8601,34 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>635</v>
+        <v>522</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>636</v>
+        <v>523</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>637</v>
+        <v>524</v>
       </c>
       <c r="J155" s="3">
         <v>11</v>
       </c>
       <c r="K155" s="4">
-        <v>2.5315290435422994E-2</v>
+        <v>2.5315000000000001E-2</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>638</v>
+        <v>513</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8771,34 +8642,1018 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>639</v>
+        <v>525</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>640</v>
+        <v>526</v>
       </c>
       <c r="J156" s="3">
         <v>25</v>
       </c>
       <c r="K156" s="4">
-        <v>0.91107871720116618</v>
+        <v>0.91107899999999997</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>641</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J157" s="3">
+        <v>9</v>
+      </c>
+      <c r="K157" s="4">
+        <v>0.327988</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J158" s="3">
+        <v>7</v>
+      </c>
+      <c r="K158" s="4">
+        <v>3.4620999999999999E-2</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J159" s="3">
+        <v>14</v>
+      </c>
+      <c r="K159" s="4">
+        <v>6.9241999999999998E-2</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J160" s="3">
+        <v>23</v>
+      </c>
+      <c r="K160" s="4">
+        <v>0.105806</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J161" s="3">
+        <v>7</v>
+      </c>
+      <c r="K161" s="4">
+        <v>0.105311</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J162" s="3">
+        <v>6</v>
+      </c>
+      <c r="K162" s="4">
+        <v>2.1919000000000001E-2</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="J163" s="3">
+        <v>8</v>
+      </c>
+      <c r="K163" s="4">
+        <v>2.9225000000000001E-2</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J164" s="3">
+        <v>3</v>
+      </c>
+      <c r="K164" s="4">
+        <v>1.0959E-2</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J165" s="3">
+        <v>4</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1.4612E-2</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="J166" s="3">
+        <v>8</v>
+      </c>
+      <c r="K166" s="4">
+        <v>2.9225000000000001E-2</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J167" s="3">
+        <v>9</v>
+      </c>
+      <c r="K167" s="4">
+        <v>3.2877999999999998E-2</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J168" s="3">
+        <v>3</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1.0959E-2</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J169" s="3">
+        <v>2</v>
+      </c>
+      <c r="K169" s="4">
+        <v>7.306E-3</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J170" s="3">
+        <v>5</v>
+      </c>
+      <c r="K170" s="4">
+        <v>1.8266000000000001E-2</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J171" s="3">
+        <v>5</v>
+      </c>
+      <c r="K171" s="4">
+        <v>1.8266000000000001E-2</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J172" s="3">
+        <v>21</v>
+      </c>
+      <c r="K172" s="4">
+        <v>7.6715000000000005E-2</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J173" s="3">
+        <v>35</v>
+      </c>
+      <c r="K173" s="4">
+        <v>0.244584</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J174" s="3">
+        <v>29</v>
+      </c>
+      <c r="K174" s="4">
+        <v>0.14371400000000001</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J175" s="3">
+        <v>8</v>
+      </c>
+      <c r="K175" s="4">
+        <v>3.9645E-2</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H176" s="3">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J176" s="3">
+        <v>8</v>
+      </c>
+      <c r="K176" s="4">
+        <v>3.9645E-2</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J177" s="3">
+        <v>3</v>
+      </c>
+      <c r="K177" s="4">
+        <v>1.4867E-2</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J178" s="3">
+        <v>23</v>
+      </c>
+      <c r="K178" s="4">
+        <v>0.11398</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J179" s="3">
+        <v>15</v>
+      </c>
+      <c r="K179" s="4">
+        <v>7.4334999999999998E-2</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J180" s="3">
+        <v>24</v>
+      </c>
+      <c r="K180" s="4">
+        <v>0.118936</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_4_1.xlsx
+++ b/data/coded_segments/md_4_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A52BC68E-17C3-0641-91F6-316A54E5A9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DECE0F04-8FFA-244B-8EBC-B0AAA7FC21F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="594">
   <si>
     <t>Color</t>
   </si>
@@ -1797,6 +1797,27 @@
   </si>
   <si>
     <t>broad-spectrum b-lactams</t>
+  </si>
+  <si>
+    <t>1: 1549</t>
+  </si>
+  <si>
+    <t>1: 1560</t>
+  </si>
+  <si>
+    <t>tuberculosis</t>
+  </si>
+  <si>
+    <t>11/8/18 14:26:00</t>
+  </si>
+  <si>
+    <t>1: 2701</t>
+  </si>
+  <si>
+    <t>1: 2723</t>
+  </si>
+  <si>
+    <t>11/8/18 14:28:00</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9656,6 +9677,88 @@
         <v>583</v>
       </c>
     </row>
+    <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="J181" s="3">
+        <v>12</v>
+      </c>
+      <c r="K181" s="4">
+        <v>4.3837000000000001E-2</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J182" s="3">
+        <v>23</v>
+      </c>
+      <c r="K182" s="4">
+        <v>0.195545</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/md_4_1.xlsx
+++ b/data/coded_segments/md_4_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DECE0F04-8FFA-244B-8EBC-B0AAA7FC21F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39800BD1-1968-D94E-835F-A19A0EA65D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="595">
   <si>
     <t>Color</t>
   </si>
@@ -1313,22 +1313,16 @@
     <t>18469</t>
   </si>
   <si>
-    <t>1: 179</t>
-  </si>
-  <si>
-    <t>Enterococcus raffinosus</t>
+    <t>1: 1362</t>
+  </si>
+  <si>
+    <t>1: 1363</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>8/3/18 20:11:00</t>
-  </si>
-  <si>
-    <t>1: 1362</t>
-  </si>
-  <si>
-    <t>1: 1363</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>1: 1414</t>
@@ -1817,7 +1811,16 @@
     <t>1: 2723</t>
   </si>
   <si>
+    <t>Enterococcus raffinosus</t>
+  </si>
+  <si>
     <t>11/8/18 14:28:00</t>
+  </si>
+  <si>
+    <t>1: 179</t>
+  </si>
+  <si>
+    <t>11/19/18 13:25:00</t>
   </si>
 </sst>
 </file>
@@ -7395,31 +7398,31 @@
         <v>427</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>108</v>
+        <v>428</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J125" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K125" s="4">
-        <v>0.195545</v>
+        <v>1.7003999999999998E-2</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7436,31 +7439,31 @@
         <v>427</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J126" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K126" s="4">
-        <v>1.7003999999999998E-2</v>
+        <v>7.6518000000000003E-2</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7477,31 +7480,31 @@
         <v>427</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J127" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K127" s="4">
-        <v>7.6518000000000003E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7521,16 +7524,16 @@
         <v>53</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J128" s="3">
         <v>10</v>
@@ -7542,7 +7545,7 @@
         <v>20</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7562,28 +7565,28 @@
         <v>53</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J129" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K129" s="4">
-        <v>8.5019999999999998E-2</v>
+        <v>0.195545</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7603,28 +7606,28 @@
         <v>53</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J130" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K130" s="4">
-        <v>0.195545</v>
+        <v>0.170039</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7644,28 +7647,28 @@
         <v>53</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J131" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K131" s="4">
-        <v>0.170039</v>
+        <v>0.195545</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7685,28 +7688,28 @@
         <v>53</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J132" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K132" s="4">
-        <v>0.195545</v>
+        <v>6.8015999999999993E-2</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7726,28 +7729,28 @@
         <v>53</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>456</v>
+        <v>314</v>
       </c>
       <c r="J133" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K133" s="4">
-        <v>6.8015999999999993E-2</v>
+        <v>7.6518000000000003E-2</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7776,19 +7779,19 @@
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="J134" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K134" s="4">
-        <v>7.6518000000000003E-2</v>
+        <v>0.110525</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7817,19 +7820,19 @@
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="J135" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K135" s="4">
-        <v>0.110525</v>
+        <v>9.3521999999999994E-2</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7849,28 +7852,28 @@
         <v>53</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
       <c r="J136" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K136" s="4">
-        <v>9.3521999999999994E-2</v>
+        <v>0.102023</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7899,19 +7902,19 @@
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="J137" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K137" s="4">
-        <v>0.102023</v>
+        <v>0.110525</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7931,28 +7934,28 @@
         <v>53</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G138" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J138" s="3">
+        <v>12</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0.102023</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="H138" s="3">
-        <v>0</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J138" s="3">
-        <v>13</v>
-      </c>
-      <c r="K138" s="4">
-        <v>0.110525</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7972,28 +7975,28 @@
         <v>53</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J139" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K139" s="4">
-        <v>0.102023</v>
+        <v>6.8015999999999993E-2</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8013,31 +8016,31 @@
         <v>53</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>475</v>
+        <v>56</v>
       </c>
       <c r="J140" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K140" s="4">
-        <v>6.8015999999999993E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
@@ -8063,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>56</v>
+        <v>478</v>
       </c>
       <c r="J141" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K141" s="4">
-        <v>8.5019999999999998E-2</v>
+        <v>0.110525</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -8095,31 +8098,31 @@
         <v>53</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J142" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K142" s="4">
-        <v>0.110525</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -8130,75 +8133,75 @@
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G143" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J143" s="3">
+        <v>27</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0.18867900000000001</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H143" s="3">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J143" s="3">
-        <v>10</v>
-      </c>
-      <c r="K143" s="4">
-        <v>8.5019999999999998E-2</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G144" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>1.3976000000000001E-2</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M144" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="H144" s="3">
-        <v>0</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="J144" s="3">
-        <v>27</v>
-      </c>
-      <c r="K144" s="4">
-        <v>0.18867900000000001</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8212,34 +8215,34 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>491</v>
+        <v>288</v>
       </c>
       <c r="J145" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K145" s="4">
-        <v>1.3976000000000001E-2</v>
+        <v>2.0964E-2</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8253,10 +8256,10 @@
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>492</v>
@@ -8268,22 +8271,22 @@
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>288</v>
+        <v>494</v>
       </c>
       <c r="J146" s="3">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K146" s="4">
-        <v>2.0964E-2</v>
+        <v>0.19566700000000001</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -8294,37 +8297,37 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J147" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K147" s="4">
-        <v>0.19566700000000001</v>
+        <v>0.14675099999999999</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8335,37 +8338,37 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J148" s="3">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K148" s="4">
-        <v>0.14675099999999999</v>
+        <v>0.57302600000000004</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -8376,37 +8379,37 @@
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>358</v>
+        <v>53</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G149" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="J149" s="3">
+        <v>13</v>
+      </c>
+      <c r="K149" s="4">
+        <v>9.0845999999999996E-2</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M149" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H149" s="3">
-        <v>0</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="J149" s="3">
-        <v>82</v>
-      </c>
-      <c r="K149" s="4">
-        <v>0.57302600000000004</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8417,37 +8420,37 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J150" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K150" s="4">
-        <v>9.0845999999999996E-2</v>
+        <v>0.12578600000000001</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8458,34 +8461,34 @@
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>507</v>
+        <v>113</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J151" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K151" s="4">
-        <v>0.12578600000000001</v>
+        <v>6.5909999999999996E-3</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8499,34 +8502,34 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>113</v>
+        <v>513</v>
       </c>
       <c r="G152" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J152" s="3">
+        <v>21</v>
+      </c>
+      <c r="K152" s="4">
+        <v>0.14036499999999999</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M152" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="H152" s="3">
-        <v>0</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="J152" s="3">
-        <v>33</v>
-      </c>
-      <c r="K152" s="4">
-        <v>6.5909999999999996E-3</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8540,34 +8543,34 @@
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J153" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K153" s="4">
-        <v>0.14036499999999999</v>
+        <v>4.3166000000000003E-2</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8581,34 +8584,34 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>519</v>
+        <v>113</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J154" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K154" s="4">
-        <v>4.3166000000000003E-2</v>
+        <v>2.5315000000000001E-2</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8622,16 +8625,16 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
@@ -8640,16 +8643,16 @@
         <v>524</v>
       </c>
       <c r="J155" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K155" s="4">
-        <v>2.5315000000000001E-2</v>
+        <v>0.91107899999999997</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8663,34 +8666,34 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>248</v>
+        <v>526</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J156" s="3">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K156" s="4">
-        <v>0.91107899999999997</v>
+        <v>0.327988</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>20</v>
+        <v>529</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8704,37 +8707,37 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>525</v>
+        <v>172</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G157" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J157" s="3">
+        <v>7</v>
+      </c>
+      <c r="K157" s="4">
+        <v>3.4620999999999999E-2</v>
+      </c>
+      <c r="L157" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H157" s="3">
-        <v>0</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="J157" s="3">
-        <v>9</v>
-      </c>
-      <c r="K157" s="4">
-        <v>0.327988</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="M157" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -8748,31 +8751,31 @@
         <v>172</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G158" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J158" s="3">
+        <v>14</v>
+      </c>
+      <c r="K158" s="4">
+        <v>6.9241999999999998E-2</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M158" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="H158" s="3">
-        <v>0</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="J158" s="3">
-        <v>7</v>
-      </c>
-      <c r="K158" s="4">
-        <v>3.4620999999999999E-2</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8786,75 +8789,75 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J159" s="3">
+        <v>23</v>
+      </c>
+      <c r="K159" s="4">
+        <v>0.105806</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H159" s="3">
-        <v>0</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J159" s="3">
-        <v>14</v>
-      </c>
-      <c r="K159" s="4">
-        <v>6.9241999999999998E-2</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="F160" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J160" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K160" s="4">
-        <v>0.105806</v>
+        <v>0.105311</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8868,34 +8871,34 @@
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H161" s="3">
         <v>0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J161" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K161" s="4">
-        <v>0.105311</v>
+        <v>2.1919000000000001E-2</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8912,31 +8915,31 @@
         <v>324</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>35</v>
+        <v>551</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="J162" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K162" s="4">
-        <v>2.1919000000000001E-2</v>
+        <v>2.9225000000000001E-2</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8953,31 +8956,31 @@
         <v>324</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>553</v>
+        <v>71</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>554</v>
+        <v>325</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>555</v>
+        <v>326</v>
       </c>
       <c r="H163" s="3">
         <v>0</v>
       </c>
       <c r="I163" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J163" s="3">
+        <v>3</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1.0959E-2</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M163" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="J163" s="3">
-        <v>8</v>
-      </c>
-      <c r="K163" s="4">
-        <v>2.9225000000000001E-2</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8997,28 +9000,28 @@
         <v>71</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H164" s="3">
         <v>0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J164" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K164" s="4">
-        <v>1.0959E-2</v>
+        <v>1.4612E-2</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9038,28 +9041,28 @@
         <v>71</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>329</v>
+        <v>552</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>330</v>
+        <v>553</v>
       </c>
       <c r="H165" s="3">
         <v>0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>331</v>
+        <v>554</v>
       </c>
       <c r="J165" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K165" s="4">
-        <v>1.4612E-2</v>
+        <v>2.9225000000000001E-2</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9079,28 +9082,28 @@
         <v>71</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>554</v>
+        <v>335</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>555</v>
+        <v>336</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
       </c>
       <c r="I166" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J166" s="3">
+        <v>9</v>
+      </c>
+      <c r="K166" s="4">
+        <v>3.2877999999999998E-2</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M166" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="J166" s="3">
-        <v>8</v>
-      </c>
-      <c r="K166" s="4">
-        <v>2.9225000000000001E-2</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9117,31 +9120,31 @@
         <v>324</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H167" s="3">
         <v>0</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="J167" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K167" s="4">
-        <v>3.2877999999999998E-2</v>
+        <v>1.0959E-2</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9161,28 +9164,28 @@
         <v>75</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H168" s="3">
         <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J168" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K168" s="4">
-        <v>1.0959E-2</v>
+        <v>7.306E-3</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9202,28 +9205,28 @@
         <v>75</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="J169" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K169" s="4">
-        <v>7.306E-3</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9243,16 +9246,16 @@
         <v>75</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="J170" s="3">
         <v>5</v>
@@ -9261,10 +9264,10 @@
         <v>1.8266000000000001E-2</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9284,72 +9287,72 @@
         <v>75</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J171" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K171" s="4">
-        <v>1.8266000000000001E-2</v>
+        <v>7.6715000000000005E-2</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M171" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="J172" s="3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K172" s="4">
-        <v>7.6715000000000005E-2</v>
+        <v>0.244584</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -9360,34 +9363,34 @@
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J173" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K173" s="4">
-        <v>0.244584</v>
+        <v>0.14371400000000001</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9404,31 +9407,31 @@
         <v>410</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>540</v>
+        <v>31</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G174" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J174" s="3">
+        <v>8</v>
+      </c>
+      <c r="K174" s="4">
+        <v>3.9645E-2</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M174" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="H174" s="3">
-        <v>0</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="J174" s="3">
-        <v>29</v>
-      </c>
-      <c r="K174" s="4">
-        <v>0.14371400000000001</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9445,19 +9448,19 @@
         <v>410</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="H175" s="3">
-        <v>0</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="J175" s="3">
         <v>8</v>
@@ -9466,10 +9469,10 @@
         <v>3.9645E-2</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9486,7 +9489,7 @@
         <v>410</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>571</v>
@@ -9498,19 +9501,19 @@
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="J176" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K176" s="4">
-        <v>3.9645E-2</v>
+        <v>1.4867E-2</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9527,31 +9530,31 @@
         <v>410</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>575</v>
+        <v>451</v>
       </c>
       <c r="J177" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K177" s="4">
-        <v>1.4867E-2</v>
+        <v>0.11398</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9571,28 +9574,28 @@
         <v>53</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>453</v>
+        <v>580</v>
       </c>
       <c r="J178" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K178" s="4">
-        <v>0.11398</v>
+        <v>7.4334999999999998E-2</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9612,28 +9615,28 @@
         <v>53</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G179" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J179" s="3">
+        <v>24</v>
+      </c>
+      <c r="K179" s="4">
+        <v>0.118936</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M179" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="H179" s="3">
-        <v>0</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="J179" s="3">
-        <v>15</v>
-      </c>
-      <c r="K179" s="4">
-        <v>7.4334999999999998E-2</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="M179" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9647,34 +9650,34 @@
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J180" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K180" s="4">
-        <v>0.118936</v>
+        <v>4.3837000000000001E-2</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9688,34 +9691,34 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J181" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K181" s="4">
-        <v>4.3837000000000001E-2</v>
+        <v>0.195545</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9735,16 +9738,16 @@
         <v>102</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H182" s="3">
-        <v>0</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="J182" s="3">
         <v>23</v>
@@ -9753,10 +9756,10 @@
         <v>0.195545</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_4_1.xlsx
+++ b/data/coded_segments/md_4_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39800BD1-1968-D94E-835F-A19A0EA65D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB220386-859B-3B47-A06A-D14ED20E4116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="595">
   <si>
     <t>Color</t>
   </si>
@@ -193,58 +193,43 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>1: 2905</t>
-  </si>
-  <si>
-    <t>1: 2915</t>
+    <t>1: 2937</t>
+  </si>
+  <si>
+    <t>1: 2947</t>
+  </si>
+  <si>
+    <t>carbapenems</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>1: 3531</t>
+  </si>
+  <si>
+    <t>1: 3539</t>
+  </si>
+  <si>
+    <t>128 _x0003_g/ml</t>
+  </si>
+  <si>
+    <t>8/3/18 19:30:00</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>8/3/18 19:31:00</t>
+  </si>
+  <si>
+    <t>1: 3512</t>
+  </si>
+  <si>
+    <t>1: 3522</t>
   </si>
   <si>
     <t>ceftazidime</t>
-  </si>
-  <si>
-    <t>1: 2918</t>
-  </si>
-  <si>
-    <t>1: 2930</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
-  </si>
-  <si>
-    <t>1: 2937</t>
-  </si>
-  <si>
-    <t>1: 2947</t>
-  </si>
-  <si>
-    <t>carbapenems</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>1: 3531</t>
-  </si>
-  <si>
-    <t>1: 3539</t>
-  </si>
-  <si>
-    <t>128 _x0003_g/ml</t>
-  </si>
-  <si>
-    <t>8/3/18 19:30:00</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>8/3/18 19:31:00</t>
-  </si>
-  <si>
-    <t>1: 3512</t>
-  </si>
-  <si>
-    <t>1: 3522</t>
   </si>
   <si>
     <t>B</t>
@@ -315,6 +300,9 @@
   </si>
   <si>
     <t>1: 3668</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
   </si>
   <si>
     <t>8/3/18 19:32:00</t>
@@ -1821,6 +1809,18 @@
   </si>
   <si>
     <t>11/19/18 13:25:00</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/23/19 14:16:19</t>
+  </si>
+  <si>
+    <t>1/23/19 14:16:42</t>
+  </si>
+  <si>
+    <t>1/29/19 16:42:21</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2806,31 +2806,31 @@
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
-        <v>9.8180000000000003E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2847,31 +2847,31 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J14" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K14" s="4">
-        <v>8.3074999999999996E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2888,7 +2888,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>67</v>
@@ -2903,16 +2903,16 @@
         <v>69</v>
       </c>
       <c r="J15" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K15" s="4">
-        <v>6.7971000000000004E-2</v>
+        <v>8.3074999999999996E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2929,31 +2929,31 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="4">
-        <v>6.7971000000000004E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2970,31 +2970,31 @@
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="J17" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="4">
-        <v>8.3074999999999996E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3011,31 +3011,31 @@
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J18" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="4">
-        <v>7.5523000000000007E-2</v>
+        <v>6.0417999999999999E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3052,31 +3052,31 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="3">
+        <v>8</v>
+      </c>
+      <c r="K19" s="4">
+        <v>6.0417999999999999E-2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="3">
-        <v>10</v>
-      </c>
-      <c r="K19" s="4">
-        <v>7.5523000000000007E-2</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3096,28 +3096,28 @@
         <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="J20" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" s="4">
-        <v>6.0417999999999999E-2</v>
+        <v>6.7971000000000004E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3134,31 +3134,31 @@
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21" s="4">
-        <v>6.0417999999999999E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3175,31 +3175,31 @@
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J22" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22" s="4">
-        <v>6.7971000000000004E-2</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3216,31 +3216,31 @@
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="3">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6.7971000000000004E-2</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10</v>
-      </c>
-      <c r="K23" s="4">
-        <v>7.5523000000000007E-2</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3257,31 +3257,31 @@
         <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J24" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K24" s="4">
-        <v>7.5523000000000007E-2</v>
+        <v>0.173703</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3298,34 +3298,34 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" s="3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K25" s="4">
-        <v>6.7971000000000004E-2</v>
+        <v>0.173703</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,34 +3339,34 @@
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="J26" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K26" s="4">
-        <v>0.173703</v>
+        <v>0.128389</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3380,34 +3380,34 @@
         <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="J27" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K27" s="4">
-        <v>0.173703</v>
+        <v>0.128389</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3421,34 +3421,34 @@
         <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="3">
+        <v>13</v>
+      </c>
+      <c r="K28" s="4">
+        <v>9.8180000000000003E-2</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="3">
-        <v>17</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.128389</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3462,31 +3462,31 @@
         <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="3">
+        <v>8</v>
+      </c>
+      <c r="K29" s="4">
+        <v>6.0417999999999999E-2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="J29" s="3">
-        <v>17</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.128389</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3503,31 +3503,31 @@
         <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J30" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K30" s="4">
-        <v>9.8180000000000003E-2</v>
+        <v>6.0417999999999999E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3544,7 +3544,7 @@
         <v>22</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>99</v>
@@ -3559,16 +3559,16 @@
         <v>101</v>
       </c>
       <c r="J31" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K31" s="4">
-        <v>6.0417999999999999E-2</v>
+        <v>0.16615099999999999</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3582,34 +3582,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J32" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="K32" s="4">
-        <v>6.0417999999999999E-2</v>
+        <v>0.22689400000000001</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3623,34 +3623,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J33" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K33" s="4">
-        <v>0.16615099999999999</v>
+        <v>6.3988000000000003E-2</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3664,34 +3664,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="3">
+        <v>25</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.215499</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="3">
-        <v>34</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.22689400000000001</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3705,34 +3705,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="J35" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K35" s="4">
-        <v>6.3988000000000003E-2</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3746,34 +3746,34 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J36" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K36" s="4">
-        <v>0.215499</v>
+        <v>1.7239999999999998E-2</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3787,34 +3787,34 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J37" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K37" s="4">
-        <v>9.4819000000000001E-2</v>
+        <v>3.4479999999999997E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3828,34 +3828,34 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="3">
+        <v>10</v>
+      </c>
+      <c r="K38" s="4">
+        <v>8.6198999999999998E-2</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="3">
-        <v>2</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1.7239999999999998E-2</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3869,34 +3869,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="J39" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K39" s="4">
-        <v>3.4479999999999997E-2</v>
+        <v>0.12067899999999999</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3910,34 +3910,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J40" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K40" s="4">
-        <v>8.6198999999999998E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3951,34 +3951,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J41" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K41" s="4">
-        <v>0.12067899999999999</v>
+        <v>6.8959999999999994E-2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3992,34 +3992,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J42" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K42" s="4">
-        <v>4.3099999999999999E-2</v>
+        <v>0.12067899999999999</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4033,22 +4033,22 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J43" s="3">
         <v>8</v>
@@ -4060,7 +4060,7 @@
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4074,37 +4074,37 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="J44" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K44" s="4">
-        <v>0.12067899999999999</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4115,63 +4115,63 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4">
+        <v>9.4819000000000001E-2</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J45" s="3">
-        <v>8</v>
-      </c>
-      <c r="K45" s="4">
-        <v>6.8959999999999994E-2</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="J46" s="3">
         <v>11</v>
@@ -4183,24 +4183,24 @@
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>150</v>
@@ -4215,19 +4215,19 @@
         <v>152</v>
       </c>
       <c r="J47" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K47" s="4">
-        <v>9.4819000000000001E-2</v>
+        <v>8.6198999999999998E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4238,37 +4238,37 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J48" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K48" s="4">
-        <v>9.4819000000000001E-2</v>
+        <v>0.131103</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -4279,34 +4279,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J49" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="K49" s="4">
-        <v>8.6198999999999998E-2</v>
+        <v>0.46178900000000001</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4320,37 +4320,37 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="3">
+        <v>10</v>
+      </c>
+      <c r="K50" s="4">
+        <v>4.5092E-2</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J50" s="3">
-        <v>21</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0.131103</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -4361,34 +4361,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J51" s="3">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="K51" s="4">
-        <v>0.46178900000000001</v>
+        <v>4.9458000000000002E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4405,31 +4405,31 @@
         <v>168</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J52" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K52" s="4">
-        <v>4.5092E-2</v>
+        <v>0.103863</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4443,34 +4443,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J53" s="3">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4">
+        <v>9.8919999999999998E-3</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J53" s="3">
-        <v>10</v>
-      </c>
-      <c r="K53" s="4">
-        <v>4.9458000000000002E-2</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4484,34 +4484,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2.4729000000000001E-2</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J54" s="3">
-        <v>21</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0.103863</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4525,34 +4525,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" s="3">
+        <v>15</v>
+      </c>
+      <c r="K55" s="4">
+        <v>7.4188000000000004E-2</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J55" s="3">
-        <v>2</v>
-      </c>
-      <c r="K55" s="4">
-        <v>9.8919999999999998E-3</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4566,34 +4566,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="3">
+        <v>12</v>
+      </c>
+      <c r="K56" s="4">
+        <v>5.935E-2</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J56" s="3">
-        <v>5</v>
-      </c>
-      <c r="K56" s="4">
-        <v>2.4729000000000001E-2</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4607,34 +4607,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14</v>
+      </c>
+      <c r="K57" s="4">
+        <v>6.9241999999999998E-2</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J57" s="3">
-        <v>15</v>
-      </c>
-      <c r="K57" s="4">
-        <v>7.4188000000000004E-2</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4648,34 +4648,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J58" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K58" s="4">
-        <v>5.935E-2</v>
+        <v>0.11375399999999999</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4689,34 +4689,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1.4838E-2</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="J59" s="3">
-        <v>14</v>
-      </c>
-      <c r="K59" s="4">
-        <v>6.9241999999999998E-2</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4730,34 +4730,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J60" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K60" s="4">
-        <v>0.11375399999999999</v>
+        <v>1.9782999999999999E-2</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4771,34 +4771,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J61" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K61" s="4">
-        <v>1.4838E-2</v>
+        <v>7.4188000000000004E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4812,34 +4812,34 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J62" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" s="4">
-        <v>1.9782999999999999E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4853,34 +4853,34 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="J63" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K63" s="4">
-        <v>7.4188000000000004E-2</v>
+        <v>2.3001000000000001E-2</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4894,34 +4894,34 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J64" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K64" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>4.1402000000000001E-2</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4935,34 +4935,34 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="3">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4">
+        <v>5.0603000000000002E-2</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J65" s="3">
-        <v>5</v>
-      </c>
-      <c r="K65" s="4">
-        <v>2.3001000000000001E-2</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4976,34 +4976,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J66" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K66" s="4">
-        <v>4.1402000000000001E-2</v>
+        <v>2.3001000000000001E-2</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5017,34 +5017,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J67" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K67" s="4">
-        <v>5.0603000000000002E-2</v>
+        <v>4.1402000000000001E-2</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5058,34 +5058,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J68" s="3">
+        <v>21</v>
+      </c>
+      <c r="K68" s="4">
+        <v>9.6604999999999996E-2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="J68" s="3">
-        <v>5</v>
-      </c>
-      <c r="K68" s="4">
-        <v>2.3001000000000001E-2</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5099,37 +5099,37 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J69" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K69" s="4">
-        <v>4.1402000000000001E-2</v>
+        <v>5.5203000000000002E-2</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -5140,34 +5140,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="J70" s="3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K70" s="4">
-        <v>9.6604999999999996E-2</v>
+        <v>5.5203000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5181,37 +5181,37 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J71" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K71" s="4">
-        <v>5.5203000000000002E-2</v>
+        <v>7.4069999999999997E-2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5222,34 +5222,34 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J72" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K72" s="4">
-        <v>5.5203000000000002E-2</v>
+        <v>0.28060299999999999</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5263,34 +5263,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J73" s="3">
+        <v>16</v>
+      </c>
+      <c r="K73" s="4">
+        <v>6.6808999999999993E-2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J73" s="3">
-        <v>14</v>
-      </c>
-      <c r="K73" s="4">
-        <v>7.4069999999999997E-2</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5304,37 +5304,37 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J74" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K74" s="4">
-        <v>0.28060299999999999</v>
+        <v>6.0996000000000002E-2</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -5345,34 +5345,34 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="J75" s="3">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K75" s="4">
-        <v>6.6808999999999993E-2</v>
+        <v>1.113918</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5386,37 +5386,37 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J76" s="3">
         <v>9</v>
       </c>
       <c r="K76" s="4">
-        <v>6.0996000000000002E-2</v>
+        <v>4.0010999999999998E-2</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5427,34 +5427,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J77" s="3">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="K77" s="4">
-        <v>1.113918</v>
+        <v>4.7173E-2</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5468,34 +5468,34 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J78" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K78" s="4">
-        <v>4.0010999999999998E-2</v>
+        <v>3.0089000000000001E-2</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5509,75 +5509,75 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J79" s="3">
+        <v>21</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0.31593199999999999</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J79" s="3">
-        <v>8</v>
-      </c>
-      <c r="K79" s="4">
-        <v>4.7173E-2</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J80" s="3">
+        <v>19</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0.28584300000000001</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="J80" s="3">
-        <v>2</v>
-      </c>
-      <c r="K80" s="4">
-        <v>3.0089000000000001E-2</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5591,37 +5591,37 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J81" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K81" s="4">
-        <v>0.31593199999999999</v>
+        <v>7.5221999999999997E-2</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -5632,34 +5632,34 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J82" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K82" s="4">
-        <v>0.28584300000000001</v>
+        <v>4.5133E-2</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5673,22 +5673,22 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="J83" s="3">
         <v>5</v>
@@ -5700,7 +5700,7 @@
         <v>20</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5714,34 +5714,34 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="J84" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K84" s="4">
-        <v>4.5133E-2</v>
+        <v>0.210621</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5755,10 +5755,10 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>289</v>
@@ -5770,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="J85" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K85" s="4">
-        <v>7.5221999999999997E-2</v>
+        <v>3.0089000000000001E-2</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5796,34 +5796,34 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3</v>
+      </c>
+      <c r="K86" s="4">
+        <v>4.5133E-2</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J86" s="3">
-        <v>14</v>
-      </c>
-      <c r="K86" s="4">
-        <v>0.210621</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5837,34 +5837,34 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J87" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K87" s="4">
-        <v>3.0089000000000001E-2</v>
+        <v>0.30088799999999999</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5878,34 +5878,34 @@
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="J88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K88" s="4">
-        <v>4.5133E-2</v>
+        <v>3.0089000000000001E-2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5919,34 +5919,34 @@
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J89" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K89" s="4">
-        <v>0.30088799999999999</v>
+        <v>0.105311</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5960,34 +5960,34 @@
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J90" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K90" s="4">
-        <v>3.0089000000000001E-2</v>
+        <v>6.0178000000000002E-2</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6001,34 +6001,34 @@
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J91" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K91" s="4">
-        <v>0.105311</v>
+        <v>0.13539899999999999</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6042,34 +6042,34 @@
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J92" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K92" s="4">
-        <v>6.0178000000000002E-2</v>
+        <v>0.10093000000000001</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6083,34 +6083,34 @@
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J93" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K93" s="4">
-        <v>0.13539899999999999</v>
+        <v>5.28E-3</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6124,34 +6124,34 @@
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J94" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K94" s="4">
-        <v>0.10093000000000001</v>
+        <v>1.0959E-2</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6168,31 +6168,31 @@
         <v>320</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J95" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K95" s="4">
-        <v>5.28E-3</v>
+        <v>1.4612E-2</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6206,34 +6206,34 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J96" s="3">
+        <v>10</v>
+      </c>
+      <c r="K96" s="4">
+        <v>3.6531000000000001E-2</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3</v>
-      </c>
-      <c r="K96" s="4">
-        <v>1.0959E-2</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6247,34 +6247,34 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J97" s="3">
+        <v>9</v>
+      </c>
+      <c r="K97" s="4">
+        <v>3.2877999999999998E-2</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J97" s="3">
-        <v>4</v>
-      </c>
-      <c r="K97" s="4">
-        <v>1.4612E-2</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6288,34 +6288,34 @@
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J98" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K98" s="4">
-        <v>3.6531000000000001E-2</v>
+        <v>1.4612E-2</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6329,34 +6329,34 @@
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J99" s="3">
+        <v>2</v>
+      </c>
+      <c r="K99" s="4">
+        <v>7.306E-3</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="J99" s="3">
-        <v>9</v>
-      </c>
-      <c r="K99" s="4">
-        <v>3.2877999999999998E-2</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6370,34 +6370,34 @@
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J100" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K100" s="4">
-        <v>1.4612E-2</v>
+        <v>1.0959E-2</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6411,34 +6411,34 @@
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J101" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K101" s="4">
-        <v>7.306E-3</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6452,34 +6452,34 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="J102" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K102" s="4">
-        <v>1.0959E-2</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6493,7 +6493,7 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>39</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="J103" s="3">
         <v>5</v>
@@ -6520,7 +6520,7 @@
         <v>20</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6534,37 +6534,37 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="J104" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K104" s="4">
-        <v>1.8266000000000001E-2</v>
+        <v>7.6715000000000005E-2</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -6575,34 +6575,34 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>39</v>
+        <v>354</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J105" s="3">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K105" s="4">
-        <v>1.8266000000000001E-2</v>
+        <v>0.175349</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6616,37 +6616,37 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="J106" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K106" s="4">
-        <v>7.6715000000000005E-2</v>
+        <v>0.387409</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -6657,34 +6657,34 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J107" s="3">
+        <v>2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>2.3972E-2</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J107" s="3">
-        <v>48</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0.175349</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6698,34 +6698,34 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="J108" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K108" s="4">
-        <v>0.387409</v>
+        <v>4.0114999999999998E-2</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6739,34 +6739,34 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J109" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K109" s="4">
-        <v>2.3972E-2</v>
+        <v>7.6674999999999993E-2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6780,34 +6780,34 @@
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J110" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K110" s="4">
-        <v>4.0114999999999998E-2</v>
+        <v>9.8424999999999999E-2</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6821,34 +6821,34 @@
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J111" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K111" s="4">
-        <v>7.6674999999999993E-2</v>
+        <v>4.1908000000000001E-2</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6862,34 +6862,34 @@
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="J112" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K112" s="4">
-        <v>9.8424999999999999E-2</v>
+        <v>5.3258E-2</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6903,34 +6903,34 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J113" s="3">
+        <v>16</v>
+      </c>
+      <c r="K113" s="4">
+        <v>3.2571000000000003E-2</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J113" s="3">
-        <v>6</v>
-      </c>
-      <c r="K113" s="4">
-        <v>4.1908000000000001E-2</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6944,34 +6944,34 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>389</v>
+        <v>260</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J114" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K114" s="4">
-        <v>5.3258E-2</v>
+        <v>5.2701999999999999E-2</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6985,34 +6985,34 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>113</v>
+        <v>395</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J115" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K115" s="4">
-        <v>3.2571000000000003E-2</v>
+        <v>2.0774999999999998E-2</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7026,34 +7026,34 @@
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>264</v>
+        <v>400</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J116" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K116" s="4">
-        <v>5.2701999999999999E-2</v>
+        <v>1.2139E-2</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7067,34 +7067,34 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
+        <v>2.3440000000000002E-3</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J117" s="3">
-        <v>6</v>
-      </c>
-      <c r="K117" s="4">
-        <v>2.0774999999999998E-2</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7108,34 +7108,34 @@
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J118" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K118" s="4">
-        <v>1.2139E-2</v>
+        <v>9.9109999999999997E-3</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7149,34 +7149,34 @@
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="J119" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K119" s="4">
-        <v>2.3440000000000002E-3</v>
+        <v>2.4778000000000001E-2</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7190,34 +7190,34 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J120" s="3">
+        <v>14</v>
+      </c>
+      <c r="K120" s="4">
+        <v>6.9378999999999996E-2</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J120" s="3">
-        <v>2</v>
-      </c>
-      <c r="K120" s="4">
-        <v>9.9109999999999997E-3</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7231,34 +7231,34 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J121" s="3">
+        <v>15</v>
+      </c>
+      <c r="K121" s="4">
+        <v>7.4334999999999998E-2</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J121" s="3">
-        <v>5</v>
-      </c>
-      <c r="K121" s="4">
-        <v>2.4778000000000001E-2</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7272,34 +7272,34 @@
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J122" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K122" s="4">
-        <v>6.9378999999999996E-2</v>
+        <v>0.13875799999999999</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7313,34 +7313,34 @@
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J123" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K123" s="4">
-        <v>7.4334999999999998E-2</v>
+        <v>1.7003999999999998E-2</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7354,34 +7354,34 @@
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J124" s="3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K124" s="4">
-        <v>0.13875799999999999</v>
+        <v>7.6518000000000003E-2</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7395,34 +7395,34 @@
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J125" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K125" s="4">
-        <v>1.7003999999999998E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7436,28 +7436,28 @@
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J126" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K126" s="4">
-        <v>7.6518000000000003E-2</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>20</v>
@@ -7477,34 +7477,34 @@
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J127" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K127" s="4">
-        <v>8.5019999999999998E-2</v>
+        <v>0.195545</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7518,34 +7518,34 @@
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J128" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K128" s="4">
-        <v>8.5019999999999998E-2</v>
+        <v>0.170039</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7559,22 +7559,22 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J129" s="3">
         <v>23</v>
@@ -7586,7 +7586,7 @@
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7600,34 +7600,34 @@
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J130" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K130" s="4">
-        <v>0.170039</v>
+        <v>6.8015999999999993E-2</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7641,34 +7641,34 @@
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>451</v>
+        <v>310</v>
       </c>
       <c r="J131" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K131" s="4">
-        <v>0.195545</v>
+        <v>7.6518000000000003E-2</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7682,34 +7682,34 @@
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>454</v>
+        <v>93</v>
       </c>
       <c r="J132" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K132" s="4">
-        <v>6.8015999999999993E-2</v>
+        <v>0.110525</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7723,7 +7723,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>53</v>
@@ -7738,19 +7738,19 @@
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>314</v>
+        <v>457</v>
       </c>
       <c r="J133" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K133" s="4">
-        <v>7.6518000000000003E-2</v>
+        <v>9.3521999999999994E-2</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7764,34 +7764,34 @@
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="J134" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K134" s="4">
-        <v>0.110525</v>
+        <v>0.102023</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7805,34 +7805,34 @@
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J135" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K135" s="4">
-        <v>9.3521999999999994E-2</v>
+        <v>0.110525</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7846,22 +7846,22 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="J136" s="3">
         <v>12</v>
@@ -7873,7 +7873,7 @@
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7887,34 +7887,34 @@
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="J137" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K137" s="4">
-        <v>0.110525</v>
+        <v>6.8015999999999993E-2</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7928,37 +7928,37 @@
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>470</v>
+        <v>56</v>
       </c>
       <c r="J138" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K138" s="4">
-        <v>0.102023</v>
+        <v>8.5019999999999998E-2</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -7969,34 +7969,34 @@
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J139" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K139" s="4">
-        <v>6.8015999999999993E-2</v>
+        <v>0.110525</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8010,22 +8010,22 @@
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>56</v>
+        <v>477</v>
       </c>
       <c r="J140" s="3">
         <v>10</v>
@@ -8037,7 +8037,7 @@
         <v>20</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8051,34 +8051,34 @@
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J141" s="3">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K141" s="4">
-        <v>0.110525</v>
+        <v>0.18867900000000001</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8092,37 +8092,37 @@
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="J142" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K142" s="4">
-        <v>8.5019999999999998E-2</v>
+        <v>1.3976000000000001E-2</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -8133,34 +8133,34 @@
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J143" s="3">
+        <v>3</v>
+      </c>
+      <c r="K143" s="4">
+        <v>2.0964E-2</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H143" s="3">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="J143" s="3">
-        <v>27</v>
-      </c>
-      <c r="K143" s="4">
-        <v>0.18867900000000001</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8174,37 +8174,37 @@
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J144" s="3">
+        <v>28</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0.19566700000000001</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M144" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H144" s="3">
-        <v>0</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J144" s="3">
-        <v>2</v>
-      </c>
-      <c r="K144" s="4">
-        <v>1.3976000000000001E-2</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -8215,37 +8215,37 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J145" s="3">
+        <v>21</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.14675099999999999</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M145" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H145" s="3">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J145" s="3">
-        <v>3</v>
-      </c>
-      <c r="K145" s="4">
-        <v>2.0964E-2</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>13</v>
       </c>
@@ -8256,37 +8256,37 @@
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J146" s="3">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="K146" s="4">
-        <v>0.19566700000000001</v>
+        <v>0.57302600000000004</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -8297,37 +8297,37 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J147" s="3">
+        <v>13</v>
+      </c>
+      <c r="K147" s="4">
+        <v>9.0845999999999996E-2</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M147" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="J147" s="3">
-        <v>21</v>
-      </c>
-      <c r="K147" s="4">
-        <v>0.14675099999999999</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8338,34 +8338,34 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>358</v>
+        <v>53</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J148" s="3">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K148" s="4">
-        <v>0.57302600000000004</v>
+        <v>0.12578600000000001</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8379,37 +8379,37 @@
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>502</v>
+        <v>109</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J149" s="3">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K149" s="4">
-        <v>9.0845999999999996E-2</v>
+        <v>6.5909999999999996E-3</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8420,34 +8420,34 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J150" s="3">
+        <v>21</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0.14036499999999999</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="J150" s="3">
-        <v>18</v>
-      </c>
-      <c r="K150" s="4">
-        <v>0.12578600000000001</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8461,34 +8461,34 @@
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>113</v>
+        <v>513</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="J151" s="3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K151" s="4">
-        <v>6.5909999999999996E-3</v>
+        <v>4.3166000000000003E-2</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8502,34 +8502,34 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J152" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K152" s="4">
-        <v>0.14036499999999999</v>
+        <v>2.5315000000000001E-2</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8543,34 +8543,34 @@
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>517</v>
+        <v>244</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J153" s="3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K153" s="4">
-        <v>4.3166000000000003E-2</v>
+        <v>0.91107899999999997</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8584,34 +8584,34 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>113</v>
+        <v>522</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J154" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K154" s="4">
-        <v>2.5315000000000001E-2</v>
+        <v>0.327988</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>20</v>
+        <v>525</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8625,78 +8625,78 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>523</v>
+        <v>168</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>248</v>
+        <v>527</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="J155" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K155" s="4">
-        <v>0.91107899999999997</v>
+        <v>3.4620999999999999E-2</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>20</v>
+        <v>525</v>
       </c>
       <c r="M155" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J156" s="3">
+        <v>14</v>
+      </c>
+      <c r="K156" s="4">
+        <v>6.9241999999999998E-2</v>
+      </c>
+      <c r="L156" s="1" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H156" s="3">
-        <v>0</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J156" s="3">
-        <v>9</v>
-      </c>
-      <c r="K156" s="4">
-        <v>0.327988</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -8707,37 +8707,37 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>131</v>
+        <v>534</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="J157" s="3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K157" s="4">
-        <v>3.4620999999999999E-2</v>
+        <v>0.105806</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -8748,37 +8748,37 @@
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J158" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K158" s="4">
-        <v>6.9241999999999998E-2</v>
+        <v>0.105311</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -8789,34 +8789,34 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>538</v>
+        <v>35</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J159" s="3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K159" s="4">
-        <v>0.105806</v>
+        <v>2.1919000000000001E-2</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8830,34 +8830,34 @@
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>35</v>
+        <v>547</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="J160" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K160" s="4">
-        <v>0.105311</v>
+        <v>2.9225000000000001E-2</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8871,34 +8871,34 @@
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>547</v>
+        <v>321</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>548</v>
+        <v>322</v>
       </c>
       <c r="H161" s="3">
         <v>0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>549</v>
+        <v>323</v>
       </c>
       <c r="J161" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K161" s="4">
-        <v>2.1919000000000001E-2</v>
+        <v>1.0959E-2</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8912,34 +8912,34 @@
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>551</v>
+        <v>65</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J162" s="3">
+        <v>4</v>
+      </c>
+      <c r="K162" s="4">
+        <v>1.4612E-2</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M162" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H162" s="3">
-        <v>0</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="J162" s="3">
-        <v>8</v>
-      </c>
-      <c r="K162" s="4">
-        <v>2.9225000000000001E-2</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8953,34 +8953,34 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>325</v>
+        <v>548</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>326</v>
+        <v>549</v>
       </c>
       <c r="H163" s="3">
         <v>0</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>327</v>
+        <v>550</v>
       </c>
       <c r="J163" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K163" s="4">
-        <v>1.0959E-2</v>
+        <v>2.9225000000000001E-2</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8994,34 +8994,34 @@
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H164" s="3">
         <v>0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J164" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K164" s="4">
-        <v>1.4612E-2</v>
+        <v>3.2877999999999998E-2</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9035,34 +9035,34 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>552</v>
+        <v>341</v>
       </c>
       <c r="G165" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J165" s="3">
+        <v>3</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1.0959E-2</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M165" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="H165" s="3">
-        <v>0</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="J165" s="3">
-        <v>8</v>
-      </c>
-      <c r="K165" s="4">
-        <v>2.9225000000000001E-2</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9076,34 +9076,34 @@
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J166" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K166" s="4">
-        <v>3.2877999999999998E-2</v>
+        <v>7.306E-3</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9117,34 +9117,34 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H167" s="3">
         <v>0</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="J167" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K167" s="4">
-        <v>1.0959E-2</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9158,34 +9158,34 @@
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H168" s="3">
         <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J168" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K168" s="4">
-        <v>7.306E-3</v>
+        <v>1.8266000000000001E-2</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9199,37 +9199,37 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="J169" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K169" s="4">
-        <v>1.8266000000000001E-2</v>
+        <v>7.6715000000000005E-2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -9240,31 +9240,31 @@
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>75</v>
+        <v>534</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>352</v>
+        <v>554</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>353</v>
+        <v>555</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>354</v>
+        <v>556</v>
       </c>
       <c r="J170" s="3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K170" s="4">
-        <v>1.8266000000000001E-2</v>
+        <v>0.244584</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>557</v>
@@ -9281,37 +9281,37 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>75</v>
+        <v>534</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>355</v>
+        <v>558</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>356</v>
+        <v>559</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="J171" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K171" s="4">
-        <v>7.6715000000000005E-2</v>
+        <v>0.14371400000000001</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
@@ -9322,31 +9322,31 @@
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>482</v>
+        <v>406</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>538</v>
+        <v>31</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J172" s="3">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K172" s="4">
-        <v>0.244584</v>
+        <v>3.9645E-2</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>561</v>
@@ -9363,16 +9363,16 @@
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>538</v>
+        <v>127</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
@@ -9381,16 +9381,16 @@
         <v>564</v>
       </c>
       <c r="J173" s="3">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K173" s="4">
-        <v>0.14371400000000001</v>
+        <v>3.9645E-2</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9404,34 +9404,34 @@
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J174" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K174" s="4">
-        <v>3.9645E-2</v>
+        <v>1.4867E-2</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9445,34 +9445,34 @@
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>568</v>
+        <v>447</v>
       </c>
       <c r="J175" s="3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K175" s="4">
-        <v>3.9645E-2</v>
+        <v>0.11398</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9486,34 +9486,34 @@
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="J176" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K176" s="4">
-        <v>1.4867E-2</v>
+        <v>7.4334999999999998E-2</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9527,31 +9527,31 @@
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>451</v>
+        <v>580</v>
       </c>
       <c r="J177" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K177" s="4">
-        <v>0.11398</v>
+        <v>0.118936</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>577</v>
@@ -9568,34 +9568,34 @@
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J178" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K178" s="4">
-        <v>7.4334999999999998E-2</v>
+        <v>4.3837000000000001E-2</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9609,34 +9609,34 @@
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J179" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K179" s="4">
-        <v>0.118936</v>
+        <v>0.195545</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9650,16 +9650,16 @@
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>585</v>
+        <v>104</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
@@ -9668,16 +9668,16 @@
         <v>587</v>
       </c>
       <c r="J180" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K180" s="4">
-        <v>4.3837000000000001E-2</v>
+        <v>0.195545</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9691,31 +9691,31 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>427</v>
+        <v>22</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>589</v>
+        <v>67</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>590</v>
+        <v>68</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J181" s="3">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4">
+        <v>8.3075296427762249E-2</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="J181" s="3">
-        <v>23</v>
-      </c>
-      <c r="K181" s="4">
-        <v>0.195545</v>
-      </c>
-      <c r="L181" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>592</v>
@@ -9732,33 +9732,74 @@
         <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>427</v>
+        <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G182" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J182" s="3">
+        <v>13</v>
+      </c>
+      <c r="K182" s="4">
+        <v>9.817989577826447E-2</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="M182" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H182" s="3">
-        <v>0</v>
-      </c>
-      <c r="I182" s="2" t="s">
+    </row>
+    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J183" s="3">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4">
+        <v>9.4819412119644855E-2</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="J182" s="3">
-        <v>23</v>
-      </c>
-      <c r="K182" s="4">
-        <v>0.195545</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M182" s="1" t="s">
+      <c r="M183" s="1" t="s">
         <v>594</v>
       </c>
     </row>

--- a/data/coded_segments/md_4_1.xlsx
+++ b/data/coded_segments/md_4_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6306"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="606">
   <si>
     <t>Color</t>
   </si>
@@ -1838,6 +1838,21 @@
   </si>
   <si>
     <t>Saint Loui</t>
+  </si>
+  <si>
+    <t>1: 599</t>
+  </si>
+  <si>
+    <t>1: 603</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>dattaray</t>
+  </si>
+  <si>
+    <t>9/17/2019 12:05:45</t>
   </si>
 </sst>
 </file>
@@ -1852,19 +1867,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2271,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9871,6 +9883,47 @@
         <v>597</v>
       </c>
     </row>
+    <row r="186" spans="1:13" ht="15.6">
+      <c r="A186" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J186" s="3">
+        <v>5</v>
+      </c>
+      <c r="K186" s="4">
+        <v>4.2509777248767221E-2</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
